--- a/Business - Technology Services/KVYO.xlsx
+++ b/Business - Technology Services/KVYO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930B1D0A-D786-46B2-A43D-DDF0824F9003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659FB5EB-950B-48B3-9660-D72496A17CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$16:$V$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$17:$V$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$2:$V$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$J$2:$V$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$J$3:$V$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$J$4:$V$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$2:$V$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$3:$V$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$4:$V$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$J$16:$V$16</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$J$17:$V$17</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$J$2:$V$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1642,7 +1642,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1851,12 +1851,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2649,6 +2643,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-95E1-4B2F-B5C5-4DE9E43D9D7D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2665,6 +2664,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-95E1-4B2F-B5C5-4DE9E43D9D7D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6019,18 +6023,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6074,7 +6078,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6094,7 +6098,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6125,18 +6129,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6180,7 +6184,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6200,7 +6204,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11922,7 +11926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -12583,16 +12587,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="144" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="145">
+      <c r="C3" s="10">
         <v>290.64</v>
       </c>
-      <c r="D3" s="147">
+      <c r="D3" s="10">
         <v>472.74799999999999</v>
       </c>
-      <c r="E3" s="146">
+      <c r="E3" s="15">
         <v>698.09900000000005</v>
       </c>
       <c r="F3" s="44"/>
@@ -12603,18 +12607,18 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
-      <c r="P3" s="145">
+      <c r="P3" s="10">
         <v>119.16800000000001</v>
       </c>
-      <c r="Q3" s="145">
+      <c r="Q3" s="10">
         <v>145.23500000000001</v>
       </c>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145">
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10">
         <v>175.80699999999999</v>
       </c>
-      <c r="U3" s="146">
+      <c r="U3" s="15">
         <v>201.61799999999999</v>
       </c>
       <c r="V3" s="11"/>
@@ -12624,7 +12628,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="148"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="15"/>
       <c r="F4" s="43">
         <v>893.16</v>
@@ -12652,38 +12656,38 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="144" t="s">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="145">
+      <c r="C5" s="10">
         <v>84.695999999999998</v>
       </c>
-      <c r="D5" s="147">
+      <c r="D5" s="10">
         <v>128.02500000000001</v>
       </c>
-      <c r="E5" s="146">
+      <c r="E5" s="15">
         <v>177.88800000000001</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="145">
+      <c r="P5" s="10">
         <v>32.619</v>
       </c>
-      <c r="Q5" s="145">
+      <c r="Q5" s="10">
         <v>37.331000000000003</v>
       </c>
-      <c r="R5" s="145"/>
-      <c r="S5" s="145"/>
-      <c r="T5" s="145">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10">
         <v>58.825000000000003</v>
       </c>
-      <c r="U5" s="146">
+      <c r="U5" s="15">
         <v>45.012999999999998</v>
       </c>
       <c r="V5" s="11"/>
@@ -12696,7 +12700,7 @@
       <c r="C6" s="10">
         <v>156.34200000000001</v>
       </c>
-      <c r="D6" s="148">
+      <c r="D6" s="10">
         <v>213.84800000000001</v>
       </c>
       <c r="E6" s="15">
@@ -12710,15 +12714,15 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="145">
+      <c r="P6" s="10">
         <v>61.481999999999999</v>
       </c>
       <c r="Q6" s="10">
         <v>60.447000000000003</v>
       </c>
-      <c r="R6" s="145"/>
-      <c r="S6" s="145"/>
-      <c r="T6" s="145">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
         <v>167.87700000000001</v>
       </c>
       <c r="U6" s="15">
@@ -12732,7 +12736,7 @@
       <c r="C7" s="10">
         <v>65.599000000000004</v>
       </c>
-      <c r="D7" s="148">
+      <c r="D7" s="10">
         <v>104.077</v>
       </c>
       <c r="E7" s="15">
@@ -12746,15 +12750,15 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="145">
+      <c r="P7" s="10">
         <v>30.09</v>
       </c>
       <c r="Q7" s="10">
         <v>28.712</v>
       </c>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10">
         <v>141.45500000000001</v>
       </c>
       <c r="U7" s="15">
@@ -12768,7 +12772,7 @@
       <c r="C8" s="10">
         <v>63.235999999999997</v>
       </c>
-      <c r="D8" s="148">
+      <c r="D8" s="10">
         <v>81.834000000000003</v>
       </c>
       <c r="E8" s="15">
@@ -12782,15 +12786,15 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="145">
+      <c r="P8" s="10">
         <v>20.64</v>
       </c>
       <c r="Q8" s="10">
         <v>22.821999999999999</v>
       </c>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10">
         <v>109.85299999999999</v>
       </c>
       <c r="U8" s="15">
@@ -12805,7 +12809,7 @@
         <f>C3-SUM(C5:C8)</f>
         <v>-79.233000000000004</v>
       </c>
-      <c r="D9" s="149">
+      <c r="D9" s="11">
         <f>D3-SUM(D5:D8)</f>
         <v>-55.036000000000115</v>
       </c>
@@ -12824,59 +12828,59 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11">
-        <f>J3-SUM(J5:J8)</f>
+        <f t="shared" ref="J9:W9" si="0">J3-SUM(J5:J8)</f>
         <v>0</v>
       </c>
       <c r="K9" s="11">
-        <f>K3-SUM(K5:K8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9" s="11">
-        <f>L3-SUM(L5:L8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="11">
-        <f>M3-SUM(M5:M8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="11">
-        <f>N3-SUM(N5:N8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O9" s="11">
-        <f>O3-SUM(O5:O8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P9" s="11">
-        <f>P3-SUM(P5:P8)</f>
+        <f t="shared" si="0"/>
         <v>-25.663000000000011</v>
       </c>
       <c r="Q9" s="11">
-        <f>Q3-SUM(Q5:Q8)</f>
+        <f t="shared" si="0"/>
         <v>-4.0769999999999982</v>
       </c>
       <c r="R9" s="11">
-        <f>R3-SUM(R5:R8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S9" s="11">
-        <f>S3-SUM(S5:S8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T9" s="11">
-        <f>T3-SUM(T5:T8)</f>
+        <f t="shared" si="0"/>
         <v>-302.20300000000009</v>
       </c>
       <c r="U9" s="14">
-        <f>U3-SUM(U5:U8)</f>
+        <f t="shared" si="0"/>
         <v>-36.330000000000013</v>
       </c>
       <c r="V9" s="11">
-        <f>V3-SUM(V5:V8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W9" s="11">
-        <f>W3-SUM(W5:W8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12887,7 +12891,7 @@
       <c r="C10" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D10" s="148">
+      <c r="D10" s="10">
         <v>0.38800000000000001</v>
       </c>
       <c r="E10" s="15">
@@ -12907,9 +12911,9 @@
       <c r="Q10" s="10">
         <v>-0.315</v>
       </c>
-      <c r="R10" s="145"/>
-      <c r="S10" s="145"/>
-      <c r="T10" s="145">
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10">
         <v>0.26500000000000001</v>
       </c>
       <c r="U10" s="15">
@@ -12923,7 +12927,7 @@
       <c r="C11" s="10">
         <v>0.13900000000000001</v>
       </c>
-      <c r="D11" s="148">
+      <c r="D11" s="10">
         <v>5.5380000000000003</v>
       </c>
       <c r="E11" s="15">
@@ -12943,9 +12947,9 @@
       <c r="Q11" s="10">
         <v>3.5750000000000002</v>
       </c>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10">
         <v>6.1829999999999998</v>
       </c>
       <c r="U11" s="15">
@@ -12960,7 +12964,7 @@
         <f>C9+SUM(C10:C11)</f>
         <v>-79.066000000000003</v>
       </c>
-      <c r="D12" s="149">
+      <c r="D12" s="11">
         <f>D9+SUM(D10:D11)</f>
         <v>-49.110000000000113</v>
       </c>
@@ -12977,59 +12981,59 @@
         <v>0</v>
       </c>
       <c r="J12" s="11">
-        <f>J9+SUM(J10:J11)</f>
+        <f t="shared" ref="J12:W12" si="1">J9+SUM(J10:J11)</f>
         <v>0</v>
       </c>
       <c r="K12" s="11">
-        <f>K9+SUM(K10:K11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L12" s="11">
-        <f>L9+SUM(L10:L11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <f>M9+SUM(M10:M11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <f>N9+SUM(N10:N11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O12" s="11">
-        <f>O9+SUM(O10:O11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P12" s="11">
-        <f>P9+SUM(P10:P11)</f>
+        <f t="shared" si="1"/>
         <v>-23.597000000000012</v>
       </c>
       <c r="Q12" s="11">
-        <f>Q9+SUM(Q10:Q11)</f>
+        <f t="shared" si="1"/>
         <v>-0.81699999999999795</v>
       </c>
       <c r="R12" s="11">
-        <f>R9+SUM(R10:R11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S12" s="11">
-        <f>S9+SUM(S10:S11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T12" s="11">
-        <f>T9+SUM(T10:T11)</f>
+        <f t="shared" si="1"/>
         <v>-295.75500000000011</v>
       </c>
       <c r="U12" s="14">
-        <f>U9+SUM(U10:U11)</f>
+        <f t="shared" si="1"/>
         <v>-26.88900000000001</v>
       </c>
       <c r="V12" s="11">
-        <f>V9+SUM(V10:V11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W12" s="11">
-        <f>W9+SUM(W10:W11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13040,7 +13044,7 @@
       <c r="C13" s="10">
         <v>0.31900000000000001</v>
       </c>
-      <c r="D13" s="148">
+      <c r="D13" s="10">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E13" s="15">
@@ -13060,9 +13064,9 @@
       <c r="Q13" s="10">
         <v>-6.2E-2</v>
       </c>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-      <c r="T13" s="145">
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10">
         <v>0.81899999999999995</v>
       </c>
       <c r="U13" s="15">
@@ -13088,59 +13092,59 @@
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="J14" s="11">
-        <f>J12-SUM(J13:J13)</f>
+        <f t="shared" ref="J14:W14" si="2">J12-SUM(J13:J13)</f>
         <v>0</v>
       </c>
       <c r="K14" s="11">
-        <f>K12-SUM(K13:K13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="11">
-        <f>L12-SUM(L13:L13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <f>M12-SUM(M13:M13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <f>N12-SUM(N13:N13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14" s="11">
-        <f>O12-SUM(O13:O13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P14" s="11">
-        <f>P12-SUM(P13:P13)</f>
+        <f t="shared" si="2"/>
         <v>-23.873000000000012</v>
       </c>
       <c r="Q14" s="11">
-        <f>Q12-SUM(Q13:Q13)</f>
+        <f t="shared" si="2"/>
         <v>-0.7549999999999979</v>
       </c>
       <c r="R14" s="11">
-        <f>R12-SUM(R13:R13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14" s="11">
-        <f>S12-SUM(S13:S13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14" s="11">
-        <f>T12-SUM(T13:T13)</f>
+        <f t="shared" si="2"/>
         <v>-296.57400000000013</v>
       </c>
       <c r="U14" s="14">
-        <f>U12-SUM(U13:U13)</f>
+        <f t="shared" si="2"/>
         <v>-26.295000000000009</v>
       </c>
       <c r="V14" s="11">
-        <f>V12-SUM(V13:V13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="11">
-        <f>W12-SUM(W13:W13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13171,9 +13175,9 @@
       <c r="Q15" s="10">
         <v>234.553842</v>
       </c>
-      <c r="R15" s="145"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="145">
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10">
         <v>240.125168</v>
       </c>
       <c r="U15" s="15">
@@ -13278,51 +13282,51 @@
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
       <c r="J18" s="3" t="e">
-        <f>1-J5/J3</f>
+        <f t="shared" ref="J18:U18" si="3">1-J5/J3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K18" s="3" t="e">
-        <f>1-K5/K3</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L18" s="3" t="e">
-        <f>1-L5/L3</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M18" s="3" t="e">
-        <f>1-M5/M3</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="3" t="e">
-        <f>1-N5/N3</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O18" s="3" t="e">
-        <f>1-O5/O3</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P18" s="3">
-        <f>1-P5/P3</f>
+        <f t="shared" si="3"/>
         <v>0.72627718850698175</v>
       </c>
       <c r="Q18" s="3">
-        <f>1-Q5/Q3</f>
+        <f t="shared" si="3"/>
         <v>0.74296140737425553</v>
       </c>
       <c r="R18" s="3" t="e">
-        <f>1-R5/R3</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S18" s="3" t="e">
-        <f>1-S5/S3</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T18" s="3">
-        <f>1-T5/T3</f>
+        <f t="shared" si="3"/>
         <v>0.66540012627483547</v>
       </c>
       <c r="U18" s="6">
-        <f>1-U5/U3</f>
+        <f t="shared" si="3"/>
         <v>0.77674116398337456</v>
       </c>
     </row>
@@ -13351,51 +13355,51 @@
         <v>0</v>
       </c>
       <c r="J19" s="4" t="e">
-        <f>J14/J3</f>
+        <f t="shared" ref="J19:U19" si="4">J14/J3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="4" t="e">
-        <f>K14/K3</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="4" t="e">
-        <f>L14/L3</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="4" t="e">
-        <f>M14/M3</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="4" t="e">
-        <f>N14/N3</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="4" t="e">
-        <f>O14/O3</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="4">
-        <f>P14/P3</f>
+        <f t="shared" si="4"/>
         <v>-0.20033062567132126</v>
       </c>
       <c r="Q19" s="4">
-        <f>Q14/Q3</f>
+        <f t="shared" si="4"/>
         <v>-5.198471442834013E-3</v>
       </c>
       <c r="R19" s="4" t="e">
-        <f>R14/R3</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S19" s="4" t="e">
-        <f>S14/S3</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T19" s="4">
-        <f>T14/T3</f>
+        <f t="shared" si="4"/>
         <v>-1.686929416917416</v>
       </c>
       <c r="U19" s="7">
-        <f>U14/U3</f>
+        <f t="shared" si="4"/>
         <v>-0.13041990298485259</v>
       </c>
     </row>
@@ -13425,35 +13429,35 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="e">
-        <f>N3/J3-1</f>
+        <f t="shared" ref="N20:U20" si="5">N3/J3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="4" t="e">
-        <f>O3/K3-1</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="4" t="e">
-        <f>P3/L3-1</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="4" t="e">
-        <f>Q3/M3-1</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R20" s="4" t="e">
-        <f>R3/N3-1</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S20" s="4" t="e">
-        <f>S3/O3-1</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T20" s="4">
-        <f>T3/P3-1</f>
+        <f t="shared" si="5"/>
         <v>0.47528698979591821</v>
       </c>
       <c r="U20" s="7">
-        <f>U3/Q3-1</f>
+        <f t="shared" si="5"/>
         <v>0.38821909319378922</v>
       </c>
       <c r="V20" s="37" t="e">
@@ -13484,51 +13488,51 @@
       <c r="F21" s="122"/>
       <c r="G21" s="122"/>
       <c r="J21" s="4" t="e">
-        <f>J6/J3</f>
+        <f t="shared" ref="J21:U21" si="6">J6/J3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="4" t="e">
-        <f>K6/K3</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="4" t="e">
-        <f>L6/L3</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="4" t="e">
-        <f>M6/M3</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="4" t="e">
-        <f>N6/N3</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="4" t="e">
-        <f>O6/O3</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="4">
-        <f>P6/P3</f>
+        <f t="shared" si="6"/>
         <v>0.51592709452201935</v>
       </c>
       <c r="Q21" s="4">
-        <f>Q6/Q3</f>
+        <f t="shared" si="6"/>
         <v>0.41620132888077943</v>
       </c>
       <c r="R21" s="4" t="e">
-        <f>R6/R3</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S21" s="4" t="e">
-        <f>S6/S3</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T21" s="4">
-        <f>T6/T3</f>
+        <f t="shared" si="6"/>
         <v>0.95489371868014372</v>
       </c>
       <c r="U21" s="7">
-        <f>U6/U3</f>
+        <f t="shared" si="6"/>
         <v>0.50850618496364408</v>
       </c>
       <c r="V21" s="4"/>
@@ -13552,51 +13556,51 @@
       <c r="F22" s="122"/>
       <c r="G22" s="122"/>
       <c r="J22" s="4" t="e">
-        <f>J7/J3</f>
+        <f t="shared" ref="J22:U22" si="7">J7/J3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="4" t="e">
-        <f>K7/K3</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="4" t="e">
-        <f>L7/L3</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="4" t="e">
-        <f>M7/M3</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="4" t="e">
-        <f>N7/N3</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="4" t="e">
-        <f>O7/O3</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="4">
-        <f>P7/P3</f>
+        <f t="shared" si="7"/>
         <v>0.25250067132116005</v>
       </c>
       <c r="Q22" s="4">
-        <f>Q7/Q3</f>
+        <f t="shared" si="7"/>
         <v>0.19769339346576237</v>
       </c>
       <c r="R22" s="4" t="e">
-        <f>R7/R3</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S22" s="4" t="e">
-        <f>S7/S3</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T22" s="4">
-        <f>T7/T3</f>
+        <f t="shared" si="7"/>
         <v>0.80460391224467753</v>
       </c>
       <c r="U22" s="7">
-        <f>U7/U3</f>
+        <f t="shared" si="7"/>
         <v>0.26106300032735175</v>
       </c>
       <c r="V22" s="4"/>
@@ -13606,7 +13610,7 @@
         <v>135</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" ref="C23" si="0">C8/C3</f>
+        <f t="shared" ref="C23" si="8">C8/C3</f>
         <v>0.21757500688136527</v>
       </c>
       <c r="D23" s="4">
@@ -13624,47 +13628,47 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="4" t="e">
-        <f t="shared" ref="K23:U23" si="1">K8/K3</f>
+        <f t="shared" ref="K23:U23" si="9">K8/K3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="4" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="4" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="4" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="4" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.17320085929108486</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.15713843081901743</v>
       </c>
       <c r="R23" s="4" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S23" s="4" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.62484997753218019</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.18736422343243164</v>
       </c>
       <c r="V23" s="4"/>
@@ -13695,39 +13699,39 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="e">
-        <f>N14/J14-1</f>
+        <f t="shared" ref="N24:V24" si="10">N14/J14-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="4" t="e">
-        <f>O14/K14-1</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="4" t="e">
-        <f>P14/L14-1</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="4" t="e">
-        <f>Q14/M14-1</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R24" s="4" t="e">
-        <f>R14/N14-1</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S24" s="4" t="e">
-        <f>S14/O14-1</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="4">
-        <f>T14/P14-1</f>
+        <f t="shared" si="10"/>
         <v>11.422988313157122</v>
       </c>
       <c r="U24" s="7">
-        <f>U14/Q14-1</f>
+        <f t="shared" si="10"/>
         <v>33.827814569536535</v>
       </c>
       <c r="V24" s="4" t="e">
-        <f>V14/R14-1</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13736,7 +13740,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" ref="C27" si="2">C28+C29</f>
+        <f t="shared" ref="C27" si="11">C28+C29</f>
         <v>0</v>
       </c>
       <c r="D27" s="11">
@@ -13752,47 +13756,47 @@
         <v>0</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" ref="K27:U27" si="3">K28+K29</f>
+        <f t="shared" ref="K27:U27" si="12">K28+K29</f>
         <v>0</v>
       </c>
       <c r="L27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>386.22899999999998</v>
       </c>
       <c r="R27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>723.80099999999993</v>
       </c>
       <c r="U27" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>738.971</v>
       </c>
     </row>
@@ -13823,7 +13827,7 @@
       <c r="T28" s="10">
         <v>723.41499999999996</v>
       </c>
-      <c r="U28" s="146">
+      <c r="U28" s="15">
         <f>E28</f>
         <v>738.56200000000001</v>
       </c>
@@ -13847,7 +13851,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10">
-        <f t="shared" ref="Q29:Q32" si="4">D29</f>
+        <f t="shared" ref="Q29:Q32" si="13">D29</f>
         <v>0.40899999999999997</v>
       </c>
       <c r="R29" s="10"/>
@@ -13855,8 +13859,8 @@
       <c r="T29" s="10">
         <v>0.38600000000000001</v>
       </c>
-      <c r="U29" s="146">
-        <f t="shared" ref="U29:U32" si="5">E29</f>
+      <c r="U29" s="15">
+        <f t="shared" ref="U29:U32" si="14">E29</f>
         <v>0.40899999999999997</v>
       </c>
     </row>
@@ -13879,7 +13883,7 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>10.723000000000001</v>
       </c>
       <c r="R30" s="10"/>
@@ -13887,8 +13891,8 @@
       <c r="T30" s="10">
         <v>17.38</v>
       </c>
-      <c r="U30" s="146">
-        <f t="shared" si="5"/>
+      <c r="U30" s="15">
+        <f t="shared" si="14"/>
         <v>23.076000000000001</v>
       </c>
     </row>
@@ -13911,7 +13915,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>11.215</v>
       </c>
       <c r="R31" s="10"/>
@@ -13919,8 +13923,8 @@
       <c r="T31" s="10">
         <v>14.161</v>
       </c>
-      <c r="U31" s="146">
-        <f t="shared" si="5"/>
+      <c r="U31" s="15">
+        <f t="shared" si="14"/>
         <v>15.198</v>
       </c>
     </row>
@@ -13943,7 +13947,7 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>19.335999999999999</v>
       </c>
       <c r="R32" s="10"/>
@@ -13951,8 +13955,8 @@
       <c r="T32" s="10">
         <v>26.01</v>
       </c>
-      <c r="U32" s="146">
-        <f t="shared" si="5"/>
+      <c r="U32" s="15">
+        <f t="shared" si="14"/>
         <v>26.244</v>
       </c>
     </row>
@@ -13973,51 +13977,51 @@
         <v>803.48900000000003</v>
       </c>
       <c r="J33" s="11">
-        <f>SUM(J28:J32)</f>
+        <f t="shared" ref="J33:U33" si="15">SUM(J28:J32)</f>
         <v>0</v>
       </c>
       <c r="K33" s="11">
-        <f>SUM(K28:K32)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L33" s="11">
-        <f>SUM(L28:L32)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M33" s="11">
-        <f>SUM(M28:M32)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N33" s="11">
-        <f>SUM(N28:N32)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O33" s="11">
-        <f>SUM(O28:O32)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P33" s="11">
-        <f>SUM(P28:P32)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q33" s="11">
-        <f>SUM(Q28:Q32)</f>
+        <f t="shared" si="15"/>
         <v>427.50299999999999</v>
       </c>
       <c r="R33" s="11">
-        <f>SUM(R28:R32)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S33" s="11">
-        <f>SUM(S28:S32)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T33" s="11">
-        <f>SUM(T28:T32)</f>
+        <f t="shared" si="15"/>
         <v>781.35199999999986</v>
       </c>
       <c r="U33" s="14">
-        <f>SUM(U28:U32)</f>
+        <f t="shared" si="15"/>
         <v>803.48900000000003</v>
       </c>
     </row>
@@ -14040,7 +14044,7 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10">
-        <f t="shared" ref="Q34:Q47" si="6">D34</f>
+        <f t="shared" ref="Q34:Q47" si="16">D34</f>
         <v>45.837000000000003</v>
       </c>
       <c r="R34" s="10"/>
@@ -14048,8 +14052,8 @@
       <c r="T34" s="10">
         <v>42.73</v>
       </c>
-      <c r="U34" s="146">
-        <f t="shared" ref="U34:U39" si="7">E34</f>
+      <c r="U34" s="15">
+        <f t="shared" ref="U34:U39" si="17">E34</f>
         <v>43.45</v>
       </c>
     </row>
@@ -14072,7 +14076,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>45.695</v>
       </c>
       <c r="R35" s="10"/>
@@ -14080,8 +14084,8 @@
       <c r="T35" s="10">
         <v>39.506</v>
       </c>
-      <c r="U35" s="146">
-        <f t="shared" si="7"/>
+      <c r="U35" s="15">
+        <f t="shared" si="17"/>
         <v>36.987000000000002</v>
       </c>
     </row>
@@ -14104,7 +14108,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>15.983000000000001</v>
       </c>
       <c r="R36" s="10"/>
@@ -14112,8 +14116,8 @@
       <c r="T36" s="10">
         <v>20.687000000000001</v>
       </c>
-      <c r="U36" s="146">
-        <f t="shared" si="7"/>
+      <c r="U36" s="15">
+        <f t="shared" si="17"/>
         <v>23.177</v>
       </c>
     </row>
@@ -14136,7 +14140,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.68700000000000006</v>
       </c>
       <c r="R37" s="10"/>
@@ -14144,8 +14148,8 @@
       <c r="T37" s="10">
         <v>0.64800000000000002</v>
       </c>
-      <c r="U37" s="146">
-        <f t="shared" si="7"/>
+      <c r="U37" s="15">
+        <f t="shared" si="17"/>
         <v>0.68600000000000005</v>
       </c>
     </row>
@@ -14168,7 +14172,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>84.415000000000006</v>
       </c>
       <c r="R38" s="10"/>
@@ -14176,8 +14180,8 @@
       <c r="T38" s="10">
         <v>178.96799999999999</v>
       </c>
-      <c r="U38" s="146">
-        <f t="shared" si="7"/>
+      <c r="U38" s="15">
+        <f t="shared" si="17"/>
         <v>173.84399999999999</v>
       </c>
     </row>
@@ -14200,7 +14204,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.9589999999999996</v>
       </c>
       <c r="R39" s="10"/>
@@ -14208,8 +14212,8 @@
       <c r="T39" s="10">
         <v>7.5330000000000004</v>
       </c>
-      <c r="U39" s="146">
-        <f t="shared" si="7"/>
+      <c r="U39" s="15">
+        <f t="shared" si="17"/>
         <v>7.4169999999999998</v>
       </c>
     </row>
@@ -14230,51 +14234,51 @@
         <v>1089.05</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" ref="J40:U40" si="8">SUM(J33:J39)</f>
+        <f t="shared" ref="J40:U40" si="18">SUM(J33:J39)</f>
         <v>0</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>629.07899999999984</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1071.4239999999998</v>
       </c>
       <c r="U40" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1089.05</v>
       </c>
     </row>
@@ -14297,7 +14301,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.89</v>
       </c>
       <c r="R41" s="10"/>
@@ -14305,8 +14309,8 @@
       <c r="T41" s="10">
         <v>9.7379999999999995</v>
       </c>
-      <c r="U41" s="146">
-        <f t="shared" ref="U41:U44" si="9">E41</f>
+      <c r="U41" s="15">
+        <f t="shared" ref="U41:U44" si="19">E41</f>
         <v>13.597</v>
       </c>
     </row>
@@ -14329,7 +14333,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>36.125999999999998</v>
       </c>
       <c r="R42" s="10"/>
@@ -14337,8 +14341,8 @@
       <c r="T42" s="10">
         <v>62.601999999999997</v>
       </c>
-      <c r="U42" s="146">
-        <f t="shared" si="9"/>
+      <c r="U42" s="15">
+        <f t="shared" si="19"/>
         <v>62.838000000000001</v>
       </c>
     </row>
@@ -14361,7 +14365,7 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>14.864000000000001</v>
       </c>
       <c r="R43" s="10"/>
@@ -14369,8 +14373,8 @@
       <c r="T43" s="10">
         <v>14.449</v>
       </c>
-      <c r="U43" s="146">
-        <f t="shared" si="9"/>
+      <c r="U43" s="15">
+        <f t="shared" si="19"/>
         <v>14.081</v>
       </c>
     </row>
@@ -14393,7 +14397,7 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>25.109000000000002</v>
       </c>
       <c r="R44" s="10"/>
@@ -14401,8 +14405,8 @@
       <c r="T44" s="10">
         <v>32.866</v>
       </c>
-      <c r="U44" s="146">
-        <f t="shared" si="9"/>
+      <c r="U44" s="15">
+        <f t="shared" si="19"/>
         <v>40.1</v>
       </c>
     </row>
@@ -14423,51 +14427,51 @@
         <v>130.61600000000001</v>
       </c>
       <c r="J45" s="11">
-        <f>SUM(J41:J44)</f>
+        <f t="shared" ref="J45:U45" si="20">SUM(J41:J44)</f>
         <v>0</v>
       </c>
       <c r="K45" s="11">
-        <f>SUM(K41:K44)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L45" s="11">
-        <f>SUM(L41:L44)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M45" s="11">
-        <f>SUM(M41:M44)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N45" s="11">
-        <f>SUM(N41:N44)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O45" s="11">
-        <f>SUM(O41:O44)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P45" s="11">
-        <f>SUM(P41:P44)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q45" s="11">
-        <f>SUM(Q41:Q44)</f>
+        <f t="shared" si="20"/>
         <v>84.989000000000004</v>
       </c>
       <c r="R45" s="11">
-        <f>SUM(R41:R44)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S45" s="11">
-        <f>SUM(S41:S44)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T45" s="11">
-        <f>SUM(T41:T44)</f>
+        <f t="shared" si="20"/>
         <v>119.655</v>
       </c>
       <c r="U45" s="14">
-        <f>SUM(U41:U44)</f>
+        <f t="shared" si="20"/>
         <v>130.61600000000001</v>
       </c>
       <c r="V45" s="11"/>
@@ -14492,7 +14496,7 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>47.543999999999997</v>
       </c>
       <c r="R46" s="10"/>
@@ -14500,8 +14504,8 @@
       <c r="T46" s="10">
         <v>40.015999999999998</v>
       </c>
-      <c r="U46" s="146">
-        <f t="shared" ref="U46:U47" si="10">E46</f>
+      <c r="U46" s="15">
+        <f t="shared" ref="U46:U47" si="21">E46</f>
         <v>37.497999999999998</v>
       </c>
     </row>
@@ -14524,7 +14528,7 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.876</v>
       </c>
       <c r="R47" s="10"/>
@@ -14532,8 +14536,8 @@
       <c r="T47" s="10">
         <v>6.4089999999999998</v>
       </c>
-      <c r="U47" s="146">
-        <f t="shared" si="10"/>
+      <c r="U47" s="15">
+        <f t="shared" si="21"/>
         <v>6.1589999999999998</v>
       </c>
     </row>
@@ -14554,51 +14558,51 @@
         <v>174.273</v>
       </c>
       <c r="J48" s="11">
-        <f>SUM(J45:J47)</f>
+        <f t="shared" ref="J48:U48" si="22">SUM(J45:J47)</f>
         <v>0</v>
       </c>
       <c r="K48" s="11">
-        <f>SUM(K45:K47)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L48" s="11">
-        <f>SUM(L45:L47)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M48" s="11">
-        <f>SUM(M45:M47)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N48" s="11">
-        <f>SUM(N45:N47)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O48" s="11">
-        <f>SUM(O45:O47)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P48" s="11">
-        <f>SUM(P45:P47)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q48" s="11">
-        <f>SUM(Q45:Q47)</f>
+        <f t="shared" si="22"/>
         <v>133.40900000000002</v>
       </c>
       <c r="R48" s="11">
-        <f>SUM(R45:R47)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S48" s="11">
-        <f>SUM(S45:S47)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T48" s="11">
-        <f>SUM(T45:T47)</f>
+        <f t="shared" si="22"/>
         <v>166.07999999999998</v>
       </c>
       <c r="U48" s="14">
-        <f>SUM(U45:U47)</f>
+        <f t="shared" si="22"/>
         <v>174.273</v>
       </c>
     </row>
@@ -14632,19 +14636,19 @@
         <v>495.66999999999985</v>
       </c>
       <c r="R49" s="10">
-        <f t="shared" ref="R49:U49" si="11">R40-R48</f>
+        <f t="shared" ref="R49:U49" si="23">R40-R48</f>
         <v>0</v>
       </c>
       <c r="S49" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T49" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>905.34399999999982</v>
       </c>
       <c r="U49" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>914.77699999999993</v>
       </c>
     </row>
@@ -23229,8 +23233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23293,7 +23297,7 @@
         <v>22.73</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
+        <f t="shared" ref="D3:D32" si="0">C3/C4-1</f>
         <v>-4.3350168350168361E-2</v>
       </c>
       <c r="H3" s="65" t="s">
@@ -24604,13 +24608,18 @@
       <c r="H60" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I60" s="113"/>
+      <c r="I60" s="113">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="61" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H61" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="I61" s="115"/>
+      <c r="I61" s="115">
+        <v>-0.3</v>
+      </c>
+      <c r="L61" s="18"/>
     </row>
     <row r="62" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H62" s="116"/>
@@ -24619,7 +24628,9 @@
       <c r="H63" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="I63" s="117"/>
+      <c r="I63" s="117">
+        <v>23.29</v>
+      </c>
     </row>
     <row r="64" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H64" s="118" t="s">
@@ -24627,7 +24638,7 @@
       </c>
       <c r="I64" s="119">
         <f>I63*(1-I60)</f>
-        <v>0</v>
+        <v>26.783499999999997</v>
       </c>
     </row>
     <row r="65" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24636,7 +24647,7 @@
       </c>
       <c r="I65" s="120">
         <f>I63*(1+I61)</f>
-        <v>0</v>
+        <v>16.302999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Business - Technology Services/KVYO.xlsx
+++ b/Business - Technology Services/KVYO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659FB5EB-950B-48B3-9660-D72496A17CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EDDFB3-5094-4810-8D86-E89549565F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,28 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$2:$V$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$3:$V$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$4:$V$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$17</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$J$16:$V$16</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$J$17:$V$17</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$J$2:$V$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Model!$J$16:$P$16</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Model!$J$16:$S$16</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Model!$J$17:$P$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Model!$J$17:$S$17</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Model!$J$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Model!$J$2:$S$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Model!$J$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Model!$J$2:$S$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$2:$P$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Model!$J$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Model!$J$3:$S$3</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Model!$J$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Model!$J$4:$S$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$2:$S$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$J$3:$S$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$J$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$J$4:$S$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$16</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="192">
   <si>
     <t>Price</t>
   </si>
@@ -338,9 +352,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
     <t>Q322</t>
   </si>
   <si>
@@ -348,18 +359,6 @@
   </si>
   <si>
     <t>Q123</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
-  </si>
-  <si>
-    <t>Q122</t>
   </si>
   <si>
     <t>FY21</t>
@@ -420,9 +419,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>Q121</t>
   </si>
   <si>
     <t>Net Income y/y</t>
@@ -906,6 +902,12 @@
   </si>
   <si>
     <t>Chief Customer Officer and Senior VP of Global Customer Success &amp; Support</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1644,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1682,7 +1684,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1698,9 +1699,6 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1851,6 +1849,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1972,7 +1983,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1984,21 +1995,28 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2007,7 +2025,26 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E309-400E-9279-09DE67BBD1C5}"/>
+                <c16:uniqueId val="{00000004-A87A-4D29-83BC-A3770C3B0E8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A87A-4D29-83BC-A3770C3B0E8E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2068,68 +2105,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$J$2:$V$2</c:f>
+              <c:f>Model!$J$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$3:$V$3</c:f>
+              <c:f>Model!$J$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="6">
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
                   <c:v>119.16800000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="1">
                   <c:v>145.23500000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="2">
+                  <c:v>156.08799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164.58600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>175.80699999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="5">
                   <c:v>201.61799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209.99299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222.21299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>226.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.91000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,36 +2284,27 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$20:$V$20</c:f>
+              <c:f>Model!$J$20:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.47528698979591821</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.38821909319378922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.34535005894111026</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.35013306113521181</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.28572809956372613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.47528698979591821</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.38821909319378922</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.27424138717773228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2670,6 +2707,25 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7DCC-42B5-B60B-2A1E825F77D1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2724,9 +2780,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$C$2:$F$2</c:f>
+              <c:f>Model!$C$2:$G$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>FY21</c:v>
                 </c:pt>
@@ -2739,15 +2795,18 @@
                 <c:pt idx="3">
                   <c:v>FY24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>FY25</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$3:$F$3</c:f>
+              <c:f>Model!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>290.64</c:v>
                 </c:pt>
@@ -2756,6 +2815,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>698.09900000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>915.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2873,10 +2938,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$20:$F$20</c:f>
+              <c:f>Model!$C$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
                   <c:v>0.6265758326451969</c:v>
                 </c:pt>
@@ -2884,7 +2949,10 @@
                   <c:v>0.47668313773934545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27941738922416426</c:v>
+                  <c:v>0.31127533487370695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25628140703517599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,12 +3316,40 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3262,19 +3358,17 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C0F4-4607-8C78-36F0EE07B767}"/>
+                <c16:uniqueId val="{00000004-31E6-42A6-AE95-31C29D0EE184}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3283,7 +3377,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C0F4-4607-8C78-36F0EE07B767}"/>
+                <c16:uniqueId val="{00000005-31E6-42A6-AE95-31C29D0EE184}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3344,95 +3438,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$J$2:$V$2</c:f>
+              <c:f>Model!$J$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Q124</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$14:$V$14</c:f>
+              <c:f>Model!$J$14:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-23.873000000000012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.7549999999999979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.2780000000000147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10.887000000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-296.57400000000013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-26.295000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-23.873000000000012</c:v>
+                  <c:v>-12.882000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.7549999999999979</c:v>
+                  <c:v>-4.9420000000000259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>29.182253539999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-296.57400000000013</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-26.295000000000009</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>26.529321400000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,45 +3617,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$18:$V$18</c:f>
+              <c:f>Model!$J$18:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.72627718850698175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.74296140737425553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.76568346061196246</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.7723014108125843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.66540012627483547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.77674116398337456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72627718850698175</c:v>
+                  <c:v>0.78600239055587562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74296140737425553</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.66540012627483547</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.77674116398337456</c:v>
+                  <c:v>0.77377111150112732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4146,7 +4210,7 @@
                   <c:v>5.2657898481491117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3546024351707961</c:v>
+                  <c:v>-1.3782425975155159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4598,83 +4662,71 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$J$2:$T$2</c:f>
+              <c:f>Model!$J$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$21:$T$21</c:f>
+              <c:f>Model!$J$21:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.51592709452201935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.41620132888077943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.38832581620624262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.38494768692355363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.95489371868014372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.50850618496364408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51592709452201935</c:v>
+                  <c:v>0.43743362874000563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41620132888077943</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95489371868014372</c:v>
+                  <c:v>0.42527214879417496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4782,47 +4834,73 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$J$2:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q424</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$22:$U$22</c:f>
+              <c:f>Model!$J$22:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.25250067132116005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.19769339346576237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22443749679667879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.20083725225717861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.80460391224467753</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.26106300032735175</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25250067132116005</c:v>
+                  <c:v>0.26713747601110516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19769339346576237</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.80460391224467753</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.26106300032735175</c:v>
+                  <c:v>0.25081790894322115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4930,47 +5008,73 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Model!$J$2:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Q322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q424</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$23:$U$23</c:f>
+              <c:f>Model!$J$23:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.17320085929108486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.15713843081901743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.14729511557582903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.14379108794186624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.62484997753218019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.18736422343243164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17320085929108486</c:v>
+                  <c:v>0.18663479258832438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15713843081901743</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.62484997753218019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.18736422343243164</c:v>
+                  <c:v>0.16092217827039823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6023,18 +6127,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6078,7 +6182,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6098,7 +6202,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6129,18 +6233,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11926,8 +12030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11950,56 +12054,56 @@
       <c r="B2" s="34"/>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>44</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C3" s="20">
         <v>45404</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="L3" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N3" s="38"/>
+        <v>171</v>
+      </c>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -12007,21 +12111,21 @@
         <v>0.81874999999999998</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="38"/>
       <c r="L4" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -12029,21 +12133,21 @@
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="38"/>
       <c r="L5" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -12052,24 +12156,24 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>22.93</v>
+        <v>31.64</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="38"/>
       <c r="L6" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -12078,27 +12182,27 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!E15</f>
-        <v>242.88927200000001</v>
+        <f>Model!Q15</f>
+        <v>265.29321399999998</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I7" s="10">
         <v>275083</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="38"/>
       <c r="L7" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -12108,26 +12212,26 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>5569.4510069600001</v>
+        <v>8393.8772909599993</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I8" s="10">
         <v>203918</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="38"/>
       <c r="L8" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -12136,25 +12240,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!U28</f>
-        <v>738.56200000000001</v>
+        <f>Model!Q28</f>
+        <v>793.55499999999995</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="39"/>
+      <c r="J9" s="38"/>
       <c r="L9" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -12166,46 +12270,46 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I10" s="10">
         <v>467173</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="38"/>
       <c r="L10" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>738.56200000000001</v>
+        <v>793.55499999999995</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="J11" s="39"/>
+        <v>148</v>
+      </c>
+      <c r="J11" s="38"/>
       <c r="L11" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -12215,30 +12319,30 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>4830.8890069600002</v>
+        <v>7600.322290959999</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J12" s="13"/>
       <c r="L12" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C13" s="36">
         <f>C6/Model!E16</f>
-        <v>-18.068964085480793</v>
+        <v>-24.932491219564426</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -12247,11 +12351,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="36">
         <f>C6/Model!F17</f>
-        <v>50.955555555555556</v>
+        <v>65.916666666666671</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -12265,16 +12369,16 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" s="36">
         <f>C6/Model!G17</f>
-        <v>40.228070175438603</v>
+        <v>54.551724137931039</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -12282,215 +12386,215 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6">
         <f>Model!G17/Model!F17-1</f>
-        <v>0.26666666666666661</v>
+        <v>0.20833333333333326</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="127"/>
+        <v>49</v>
+      </c>
+      <c r="L17" s="123"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="125"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="53">
+        <v>64</v>
+      </c>
+      <c r="C18" s="51">
         <f>C14/(C16*100)</f>
-        <v>0.50955555555555554</v>
-      </c>
-      <c r="L18" s="128"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
+        <v>0.65916666666666668</v>
+      </c>
+      <c r="L18" s="126"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="128"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="53">
+        <v>65</v>
+      </c>
+      <c r="C19" s="51">
         <f>C15/(C17*100)</f>
-        <v>1.5085526315789479</v>
-      </c>
-      <c r="L19" s="128"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="130"/>
+        <v>2.6184827586206909</v>
+      </c>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="128"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C20" s="6">
         <f>Model!F4/Model!E3-1</f>
-        <v>0.27941738922416426</v>
-      </c>
-      <c r="L20" s="128"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="130"/>
+        <v>0.31127533487370695</v>
+      </c>
+      <c r="L20" s="126"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="128"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C21" s="6">
         <f>Model!G4/Model!F4-1</f>
-        <v>0.25397465179811007</v>
-      </c>
-      <c r="L21" s="128"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="130"/>
+        <v>0.25628140703517599</v>
+      </c>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="128"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C22" s="15">
         <f>Model!E9+Model!E10</f>
         <v>-331.09199999999998</v>
       </c>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="130"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="128"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C23" s="15">
         <f>Model!E12</f>
         <v>-307.04099999999994</v>
       </c>
-      <c r="L23" s="128"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="130"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="128"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!E18</f>
-        <v>0.7451822735743785</v>
-      </c>
-      <c r="L24" s="128"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="130"/>
+        <f>Model!Q18</f>
+        <v>0.77377111150112732</v>
+      </c>
+      <c r="L24" s="126"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="128"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!E19</f>
-        <v>-0.44153193171742106</v>
-      </c>
-      <c r="L25" s="128"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="130"/>
+        <f>Model!Q19</f>
+        <v>-2.2239922956802823E-2</v>
+      </c>
+      <c r="L25" s="126"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="128"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>-15.733693568481087</v>
-      </c>
-      <c r="L26" s="128"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="130"/>
+        <v>-24.753444298839572</v>
+      </c>
+      <c r="L26" s="126"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="128"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="121">
+        <v>78</v>
+      </c>
+      <c r="C27" s="119">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="128"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="130"/>
+        <v>69</v>
+      </c>
+      <c r="L27" s="126"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="128"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C28" s="36">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="131"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="133"/>
+        <v>167</v>
+      </c>
+      <c r="L28" s="129"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="131"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!E33/Model!E45</f>
-        <v>6.1515357995957611</v>
+        <f>Model!Q33/Model!Q45</f>
+        <v>6.628243410605335</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!E28+Model!E29+Model!E30)/Model!E45</f>
-        <v>5.8342546089299931</v>
+        <f>(Model!Q28+Model!Q29+Model!Q30)/Model!Q45</f>
+        <v>6.2545721167361883</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!O27-Model!O35)/Main!C7</f>
-        <v>0</v>
+        <f>(Model!Q27-Model!Q35)/Main!C7</f>
+        <v>2.8718563453341859</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C33" s="36"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="39">
+        <v>85</v>
+      </c>
+      <c r="C34" s="38">
         <f>Model!E14/Model!E40</f>
         <v>-0.28302924567283411</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="39">
+        <v>86</v>
+      </c>
+      <c r="C35" s="38">
         <f>Model!E14/Model!E49</f>
         <v>-0.3369487864255441</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -12505,13 +12609,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V25" sqref="V25"/>
+      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12519,76 +12623,65 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="13"/>
-    <col min="21" max="21" width="11.42578125" style="13"/>
+    <col min="15" max="15" width="11.42578125" style="142"/>
+    <col min="17" max="17" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" s="142" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" t="s">
+        <v>190</v>
+      </c>
+      <c r="S2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="10">
         <v>290.64</v>
@@ -12599,65 +12692,78 @@
       <c r="E3" s="15">
         <v>698.09900000000005</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10">
+      <c r="F3" s="43">
+        <v>915.4</v>
+      </c>
+      <c r="G3" s="43">
+        <v>1150</v>
+      </c>
+      <c r="J3" s="10">
         <v>119.16800000000001</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="K3" s="10">
         <v>145.23500000000001</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10">
+      <c r="L3" s="10">
+        <v>156.08799999999999</v>
+      </c>
+      <c r="M3" s="10">
+        <v>164.58600000000001</v>
+      </c>
+      <c r="N3" s="10">
         <v>175.80699999999999</v>
       </c>
-      <c r="U3" s="15">
+      <c r="O3" s="143">
         <v>201.61799999999999</v>
       </c>
-      <c r="V3" s="11"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P3" s="143">
+        <v>209.99299999999999</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>222.21299999999999</v>
+      </c>
+      <c r="R3" s="143">
+        <v>226.04</v>
+      </c>
+      <c r="S3" s="143">
+        <v>256.91000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="43">
-        <v>893.16</v>
-      </c>
-      <c r="G4" s="43">
-        <v>1120</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="10">
+      <c r="F4" s="42">
+        <v>915.4</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1150</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143">
         <v>202.21</v>
       </c>
-      <c r="W4" s="41">
+      <c r="Q4" s="15">
         <v>209.99</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="143">
+        <v>226.04</v>
+      </c>
+      <c r="S4" s="143">
+        <v>256.91000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C5" s="10">
         <v>84.695999999999998</v>
@@ -12670,32 +12776,36 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="10">
+      <c r="J5" s="10">
         <v>32.619</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="K5" s="10">
         <v>37.331000000000003</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10">
+      <c r="L5" s="10">
+        <v>36.573999999999998</v>
+      </c>
+      <c r="M5" s="10">
+        <v>37.475999999999999</v>
+      </c>
+      <c r="N5" s="10">
         <v>58.825000000000003</v>
       </c>
-      <c r="U5" s="15">
+      <c r="O5" s="143">
         <v>45.012999999999998</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P5" s="143">
+        <v>44.938000000000002</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>50.271000000000001</v>
+      </c>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C6" s="10">
         <v>156.34200000000001</v>
@@ -12706,32 +12816,38 @@
       <c r="E6" s="15">
         <v>394.36900000000003</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="J6" s="10">
         <v>61.481999999999999</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="K6" s="10">
         <v>60.447000000000003</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10">
+      <c r="L6" s="10">
+        <v>60.613</v>
+      </c>
+      <c r="M6" s="10">
+        <v>63.356999999999999</v>
+      </c>
+      <c r="N6" s="10">
         <v>167.87700000000001</v>
       </c>
-      <c r="U6" s="15">
+      <c r="O6" s="143">
         <v>102.524</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P6" s="143">
+        <v>91.858000000000004</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>94.501000000000005</v>
+      </c>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" s="10">
         <v>65.599000000000004</v>
@@ -12742,32 +12858,38 @@
       <c r="E7" s="15">
         <v>262.17700000000002</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="J7" s="10">
         <v>30.09</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="K7" s="10">
         <v>28.712</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10">
+      <c r="L7" s="10">
+        <v>35.031999999999996</v>
+      </c>
+      <c r="M7" s="10">
+        <v>33.055</v>
+      </c>
+      <c r="N7" s="10">
         <v>141.45500000000001</v>
       </c>
-      <c r="U7" s="15">
+      <c r="O7" s="143">
         <v>52.634999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P7" s="143">
+        <v>56.097000000000001</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>55.734999999999999</v>
+      </c>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C8" s="10">
         <v>63.235999999999997</v>
@@ -12780,30 +12902,36 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10">
+      <c r="J8" s="10">
         <v>20.64</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="K8" s="10">
         <v>22.821999999999999</v>
       </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10">
+      <c r="L8" s="10">
+        <v>22.991</v>
+      </c>
+      <c r="M8" s="10">
+        <v>23.666</v>
+      </c>
+      <c r="N8" s="10">
         <v>109.85299999999999</v>
       </c>
-      <c r="U8" s="15">
+      <c r="O8" s="143">
         <v>37.776000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="143">
+        <v>39.192</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>35.759</v>
+      </c>
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="11">
         <f>C3-SUM(C5:C8)</f>
@@ -12819,74 +12947,58 @@
       </c>
       <c r="F9" s="11">
         <f>F3-SUM(F5:F8)</f>
-        <v>0</v>
+        <v>915.4</v>
       </c>
       <c r="G9" s="11">
         <f>G3-SUM(G5:G8)</f>
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11">
-        <f t="shared" ref="J9:W9" si="0">J3-SUM(J5:J8)</f>
-        <v>0</v>
+        <f t="shared" ref="J9:Q9" si="0">J3-SUM(J5:J8)</f>
+        <v>-25.663000000000011</v>
       </c>
       <c r="K9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0769999999999982</v>
       </c>
       <c r="L9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.87800000000001432</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0320000000000107</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <f t="shared" si="0"/>
-        <v>-25.663000000000011</v>
-      </c>
-      <c r="Q9" s="11">
-        <f t="shared" si="0"/>
-        <v>-4.0769999999999982</v>
-      </c>
-      <c r="R9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <f t="shared" si="0"/>
         <v>-302.20300000000009</v>
       </c>
-      <c r="U9" s="14">
+      <c r="O9" s="144">
         <f t="shared" si="0"/>
         <v>-36.330000000000013</v>
       </c>
-      <c r="V9" s="11">
+      <c r="P9" s="144">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="11">
+        <v>-22.092000000000013</v>
+      </c>
+      <c r="Q9" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>-14.053000000000026</v>
+      </c>
+      <c r="R9" s="144">
+        <f t="shared" ref="R9:S9" si="1">R3-SUM(R5:R8)</f>
+        <v>226.04</v>
+      </c>
+      <c r="S9" s="144">
+        <f t="shared" si="1"/>
+        <v>256.91000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C10" s="10">
         <v>2.8000000000000001E-2</v>
@@ -12897,32 +13009,38 @@
       <c r="E10" s="15">
         <v>-0.47</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="J10" s="10">
         <v>0.52900000000000003</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="K10" s="10">
         <v>-0.315</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10">
+      <c r="L10" s="10">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="M10" s="10">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="N10" s="10">
         <v>0.26500000000000001</v>
       </c>
-      <c r="U10" s="15">
+      <c r="O10" s="143">
         <v>-0.126</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P10" s="143">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="10">
         <v>0.13900000000000001</v>
@@ -12933,32 +13051,38 @@
       <c r="E11" s="15">
         <v>24.050999999999998</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="J11" s="10">
         <v>1.5369999999999999</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="K11" s="10">
         <v>3.5750000000000002</v>
       </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10">
+      <c r="L11" s="10">
+        <v>3.8159999999999998</v>
+      </c>
+      <c r="M11" s="10">
+        <v>4.4850000000000003</v>
+      </c>
+      <c r="N11" s="10">
         <v>6.1829999999999998</v>
       </c>
-      <c r="U11" s="15">
+      <c r="O11" s="143">
         <v>9.5670000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="143">
+        <v>9.5459999999999994</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>9.9789999999999992</v>
+      </c>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11">
         <f>C9+SUM(C10:C11)</f>
@@ -12974,72 +13098,56 @@
       </c>
       <c r="F12" s="11">
         <f>F9+SUM(F10:F11)</f>
-        <v>0</v>
+        <v>915.4</v>
       </c>
       <c r="G12" s="11">
         <f>G9+SUM(G10:G11)</f>
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="J12" s="11">
-        <f t="shared" ref="J12:W12" si="1">J9+SUM(J10:J11)</f>
-        <v>0</v>
+        <f t="shared" ref="J12:Q12" si="2">J9+SUM(J10:J11)</f>
+        <v>-23.597000000000012</v>
       </c>
       <c r="K12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-0.81699999999999795</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.6690000000000147</v>
       </c>
       <c r="M12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11.463000000000012</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="11">
-        <f t="shared" si="1"/>
-        <v>-23.597000000000012</v>
-      </c>
-      <c r="Q12" s="11">
-        <f t="shared" si="1"/>
-        <v>-0.81699999999999795</v>
-      </c>
-      <c r="R12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-295.75500000000011</v>
       </c>
-      <c r="U12" s="14">
-        <f t="shared" si="1"/>
+      <c r="O12" s="144">
+        <f t="shared" si="2"/>
         <v>-26.88900000000001</v>
       </c>
-      <c r="V12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P12" s="144">
+        <f t="shared" si="2"/>
+        <v>-12.478000000000014</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" si="2"/>
+        <v>-4.0810000000000262</v>
+      </c>
+      <c r="R12" s="144">
+        <f t="shared" ref="R12:S12" si="3">R9+SUM(R10:R11)</f>
+        <v>226.04</v>
+      </c>
+      <c r="S12" s="144">
+        <f t="shared" si="3"/>
+        <v>256.91000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C13" s="10">
         <v>0.31900000000000001</v>
@@ -13050,32 +13158,38 @@
       <c r="E13" s="15">
         <v>1.1919999999999999</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="J13" s="10">
         <v>0.27600000000000002</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="K13" s="10">
         <v>-6.2E-2</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10">
+      <c r="L13" s="10">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="N13" s="10">
         <v>0.81899999999999995</v>
       </c>
-      <c r="U13" s="15">
+      <c r="O13" s="143">
         <v>-0.59399999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="143">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="R13" s="143"/>
+      <c r="S13" s="143"/>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C14" s="11">
         <f>C12-SUM(C13:C13)</f>
@@ -13089,66 +13203,50 @@
         <f>E12-SUM(E13:E13)</f>
         <v>-308.23299999999995</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
       <c r="J14" s="11">
-        <f t="shared" ref="J14:W14" si="2">J12-SUM(J13:J13)</f>
-        <v>0</v>
+        <f t="shared" ref="J14:Q14" si="4">J12-SUM(J13:J13)</f>
+        <v>-23.873000000000012</v>
       </c>
       <c r="K14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-0.7549999999999979</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4.2780000000000147</v>
       </c>
       <c r="M14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10.887000000000011</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" si="2"/>
-        <v>-23.873000000000012</v>
-      </c>
-      <c r="Q14" s="11">
-        <f t="shared" si="2"/>
-        <v>-0.7549999999999979</v>
-      </c>
-      <c r="R14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-296.57400000000013</v>
       </c>
-      <c r="U14" s="14">
-        <f t="shared" si="2"/>
+      <c r="O14" s="144">
+        <f t="shared" si="4"/>
         <v>-26.295000000000009</v>
       </c>
-      <c r="V14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P14" s="144">
+        <f t="shared" si="4"/>
+        <v>-12.882000000000014</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="4"/>
+        <v>-4.9420000000000259</v>
+      </c>
+      <c r="R14" s="144">
+        <f>R16*R15</f>
+        <v>29.182253539999998</v>
+      </c>
+      <c r="S14" s="144">
+        <f>S16*S15</f>
+        <v>26.529321400000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -13161,34 +13259,42 @@
       <c r="E15" s="15">
         <v>242.88927200000001</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10">
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="J15" s="10">
         <v>231.973229</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="K15" s="10">
         <v>234.553842</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10">
+      <c r="L15" s="10">
+        <v>235.49799999999999</v>
+      </c>
+      <c r="M15" s="10">
+        <v>236.59023500000001</v>
+      </c>
+      <c r="N15" s="10">
         <v>240.125168</v>
       </c>
-      <c r="U15" s="15">
+      <c r="O15" s="143">
         <v>258.89918899999998</v>
       </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-    </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="143">
+        <v>261.33241099999998</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>265.29321399999998</v>
+      </c>
+      <c r="R15" s="143">
+        <v>265.29321399999998</v>
+      </c>
+      <c r="S15" s="143">
+        <v>265.29321399999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
         <f>C14/C15</f>
@@ -13198,74 +13304,90 @@
         <f>D14/D15</f>
         <v>-0.21401547880991867</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="54">
         <f>E14/E15</f>
         <v>-1.2690268181132345</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2">
+      <c r="F16" s="55">
+        <v>0.48</v>
+      </c>
+      <c r="G16" s="56">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J16" s="2">
+        <f>J14/J15</f>
+        <v>-0.10291273740040068</v>
+      </c>
+      <c r="K16" s="2">
+        <f>K14/K15</f>
+        <v>-3.218877139518345E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <f>L14/L15</f>
+        <v>1.8165759369506387E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <f>M14/M15</f>
+        <v>4.6016269437324876E-2</v>
+      </c>
+      <c r="N16" s="2">
+        <f>N14/N15</f>
+        <v>-1.2350808641599789</v>
+      </c>
+      <c r="O16" s="145">
+        <f>O14/O15</f>
+        <v>-0.101564628694144</v>
+      </c>
+      <c r="P16" s="145">
         <f>P14/P15</f>
-        <v>-0.10291273740040068</v>
-      </c>
-      <c r="Q16" s="2">
+        <v>-4.9293541320445E-2</v>
+      </c>
+      <c r="Q16" s="54">
         <f>Q14/Q15</f>
-        <v>-3.218877139518345E-3</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2">
-        <f>T14/T15</f>
-        <v>-1.2350808641599789</v>
-      </c>
-      <c r="U16" s="56">
-        <f>U14/U15</f>
-        <v>-0.101564628694144</v>
-      </c>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-    </row>
-    <row r="17" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-1.8628444827088666E-2</v>
+      </c>
+      <c r="R16" s="150">
+        <v>0.11</v>
+      </c>
+      <c r="S16" s="150">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="45">
-        <v>0.45</v>
-      </c>
-      <c r="G17" s="46">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="51">
+      <c r="F17" s="44">
+        <v>0.48</v>
+      </c>
+      <c r="G17" s="45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146">
         <v>0.11</v>
       </c>
-      <c r="W17" s="51">
+      <c r="Q17" s="49">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="146">
+        <v>0.11</v>
+      </c>
+      <c r="S17" s="146">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
         <f>1-C5/C3</f>
@@ -13279,60 +13401,46 @@
         <f>1-E5/E3</f>
         <v>0.7451822735743785</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="J18" s="3" t="e">
-        <f t="shared" ref="J18:U18" si="3">1-J5/J3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="3">
-        <f t="shared" si="3"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="J18" s="3">
+        <f t="shared" ref="J18:P18" si="5">1-J5/J3</f>
         <v>0.72627718850698175</v>
       </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="3"/>
+      <c r="K18" s="3">
+        <f t="shared" si="5"/>
         <v>0.74296140737425553</v>
       </c>
-      <c r="R18" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="3">
-        <f t="shared" si="3"/>
+      <c r="L18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.76568346061196246</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7723014108125843</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="5"/>
         <v>0.66540012627483547</v>
       </c>
-      <c r="U18" s="6">
-        <f t="shared" si="3"/>
+      <c r="O18" s="39">
+        <f t="shared" si="5"/>
         <v>0.77674116398337456</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P18" s="39">
+        <f t="shared" si="5"/>
+        <v>0.78600239055587562</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" ref="Q18" si="6">1-Q5/Q3</f>
+        <v>0.77377111150112732</v>
+      </c>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4">
         <f>C14/C3</f>
@@ -13346,69 +13454,55 @@
         <f>E14/E3</f>
         <v>-0.44153193171742106</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="47">
         <f>F14/F4</f>
         <v>0</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="47">
         <f>G14/G4</f>
         <v>0</v>
       </c>
-      <c r="J19" s="4" t="e">
-        <f t="shared" ref="J19:U19" si="4">J14/J3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="4">
-        <f t="shared" si="4"/>
+      <c r="J19" s="4">
+        <f t="shared" ref="J19:P19" si="7">J14/J3</f>
         <v>-0.20033062567132126</v>
       </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="4"/>
+      <c r="K19" s="4">
+        <f t="shared" si="7"/>
         <v>-5.198471442834013E-3</v>
       </c>
-      <c r="R19" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="4"/>
+      <c r="L19" s="4">
+        <f t="shared" si="7"/>
+        <v>2.7407616216493354E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="7"/>
+        <v>6.6147788997849205E-2</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="7"/>
         <v>-1.686929416917416</v>
       </c>
-      <c r="U19" s="7">
-        <f t="shared" si="4"/>
+      <c r="O19" s="147">
+        <f t="shared" si="7"/>
         <v>-0.13041990298485259</v>
       </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P19" s="147">
+        <f t="shared" si="7"/>
+        <v>-6.1344901972922972E-2</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" ref="Q19" si="8">Q14/Q3</f>
+        <v>-2.2239922956802823E-2</v>
+      </c>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="40">
+      <c r="D20" s="39">
         <f>D3/C3-1</f>
         <v>0.6265758326451969</v>
       </c>
@@ -13416,62 +13510,46 @@
         <f>E3/D3-1</f>
         <v>0.47668313773934545</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="48">
         <f>F4/E3-1</f>
-        <v>0.27941738922416426</v>
-      </c>
-      <c r="G20" s="49">
+        <v>0.31127533487370695</v>
+      </c>
+      <c r="G20" s="48">
         <f>G4/F4-1</f>
-        <v>0.25397465179811007</v>
+        <v>0.25628140703517599</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4" t="e">
-        <f t="shared" ref="N20:U20" si="5">N3/J3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="5"/>
+      <c r="N20" s="4">
+        <f t="shared" ref="N20:O20" si="9">N3/J3-1</f>
         <v>0.47528698979591821</v>
       </c>
-      <c r="U20" s="7">
-        <f t="shared" si="5"/>
+      <c r="O20" s="147">
+        <f t="shared" si="9"/>
         <v>0.38821909319378922</v>
       </c>
-      <c r="V20" s="37" t="e">
-        <f>V4/R3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W20" s="37" t="e">
-        <f>W4/S3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P20" s="147">
+        <f>P3/L3-1</f>
+        <v>0.34535005894111026</v>
+      </c>
+      <c r="Q20" s="7">
+        <f>Q3/M3-1</f>
+        <v>0.35013306113521181</v>
+      </c>
+      <c r="R20" s="147">
+        <f>R3/N3-1</f>
+        <v>0.28572809956372613</v>
+      </c>
+      <c r="S20" s="147">
+        <f>S3/O3-1</f>
+        <v>0.27424138717773228</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4">
         <f>C6/C3</f>
@@ -13485,61 +13563,46 @@
         <f>E6/E3</f>
         <v>0.56491844279966019</v>
       </c>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="J21" s="4" t="e">
-        <f t="shared" ref="J21:U21" si="6">J6/J3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="6"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="J21" s="4">
+        <f t="shared" ref="J21:P21" si="10">J6/J3</f>
         <v>0.51592709452201935</v>
       </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="6"/>
+      <c r="K21" s="4">
+        <f t="shared" si="10"/>
         <v>0.41620132888077943</v>
       </c>
-      <c r="R21" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="4">
-        <f t="shared" si="6"/>
+      <c r="L21" s="4">
+        <f t="shared" si="10"/>
+        <v>0.38832581620624262</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="10"/>
+        <v>0.38494768692355363</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="10"/>
         <v>0.95489371868014372</v>
       </c>
-      <c r="U21" s="7">
-        <f t="shared" si="6"/>
+      <c r="O21" s="147">
+        <f t="shared" si="10"/>
         <v>0.50850618496364408</v>
       </c>
-      <c r="V21" s="4"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P21" s="147">
+        <f t="shared" si="10"/>
+        <v>0.43743362874000563</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" ref="Q21" si="11">Q6/Q3</f>
+        <v>0.42527214879417496</v>
+      </c>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C22" s="4">
         <f>C7/C3</f>
@@ -13553,64 +13616,49 @@
         <f>E7/E3</f>
         <v>0.37555848096043687</v>
       </c>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="J22" s="4" t="e">
-        <f t="shared" ref="J22:U22" si="7">J7/J3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" si="7"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="J22" s="4">
+        <f t="shared" ref="J22:O22" si="12">J7/J3</f>
         <v>0.25250067132116005</v>
       </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="7"/>
+      <c r="K22" s="4">
+        <f t="shared" si="12"/>
         <v>0.19769339346576237</v>
       </c>
-      <c r="R22" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="7"/>
+      <c r="L22" s="4">
+        <f t="shared" si="12"/>
+        <v>0.22443749679667879</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="12"/>
+        <v>0.20083725225717861</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="12"/>
         <v>0.80460391224467753</v>
       </c>
-      <c r="U22" s="7">
-        <f t="shared" si="7"/>
+      <c r="O22" s="147">
+        <f t="shared" si="12"/>
         <v>0.26106300032735175</v>
       </c>
-      <c r="V22" s="4"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P22" s="147">
+        <f t="shared" ref="P22:Q22" si="13">P7/P3</f>
+        <v>0.26713747601110516</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="13"/>
+        <v>0.25081790894322115</v>
+      </c>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" ref="C23" si="8">C8/C3</f>
+        <f t="shared" ref="C23" si="14">C8/C3</f>
         <v>0.21757500688136527</v>
       </c>
       <c r="D23" s="4">
@@ -13621,64 +13669,49 @@
         <f>E8/E3</f>
         <v>0.27830866395740433</v>
       </c>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="J23" s="4" t="e">
-        <f>J8/J3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="4" t="e">
-        <f t="shared" ref="K23:U23" si="9">K8/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="4">
-        <f t="shared" si="9"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="J23" s="4">
+        <f t="shared" ref="J23:O23" si="15">J8/J3</f>
         <v>0.17320085929108486</v>
       </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="9"/>
+      <c r="K23" s="4">
+        <f t="shared" si="15"/>
         <v>0.15713843081901743</v>
       </c>
-      <c r="R23" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="9"/>
+      <c r="L23" s="4">
+        <f t="shared" si="15"/>
+        <v>0.14729511557582903</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="15"/>
+        <v>0.14379108794186624</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="15"/>
         <v>0.62484997753218019</v>
       </c>
-      <c r="U23" s="4">
-        <f t="shared" si="9"/>
+      <c r="O23" s="147">
+        <f t="shared" si="15"/>
         <v>0.18736422343243164</v>
       </c>
-      <c r="V23" s="4"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="P23" s="147">
+        <f t="shared" ref="P23:Q23" si="16">P8/P3</f>
+        <v>0.18663479258832438</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" si="16"/>
+        <v>0.16092217827039823</v>
+      </c>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="40">
+      <c r="D24" s="39">
         <f>D14/C14-1</f>
         <v>-0.38032373874157455</v>
       </c>
@@ -13686,61 +13719,49 @@
         <f>E14/D14-1</f>
         <v>5.2657898481491117</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="57">
         <f>F17/E16-1</f>
-        <v>-1.3546024351707961</v>
-      </c>
-      <c r="G24" s="59">
+        <v>-1.3782425975155159</v>
+      </c>
+      <c r="G24" s="57">
         <f>G17/F17-1</f>
-        <v>0.26666666666666661</v>
+        <v>0.20833333333333326</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4" t="e">
-        <f t="shared" ref="N24:V24" si="10">N14/J14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="10"/>
+      <c r="N24" s="4">
+        <f t="shared" ref="N24:S24" si="17">N14/J14-1</f>
         <v>11.422988313157122</v>
       </c>
-      <c r="U24" s="7">
-        <f t="shared" si="10"/>
+      <c r="O24" s="147">
+        <f t="shared" si="17"/>
         <v>33.827814569536535</v>
       </c>
-      <c r="V24" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="147">
+        <f t="shared" si="17"/>
+        <v>-4.0112201963534293</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="17"/>
+        <v>-1.4539358868375145</v>
+      </c>
+      <c r="R24" s="147">
+        <f t="shared" si="17"/>
+        <v>-1.0983978822823308</v>
+      </c>
+      <c r="S24" s="147">
+        <f t="shared" si="17"/>
+        <v>-2.0089112530899405</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" ref="C27" si="11">C28+C29</f>
+        <f t="shared" ref="C27" si="18">C28+C29</f>
         <v>0</v>
       </c>
       <c r="D27" s="11">
@@ -13752,57 +13773,49 @@
         <v>738.971</v>
       </c>
       <c r="J27" s="11">
-        <f>J28+J29</f>
+        <f t="shared" ref="J27:N27" si="19">J28+J29</f>
         <v>0</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" ref="K27:U27" si="12">K28+K29</f>
+        <f t="shared" si="19"/>
+        <v>386.22899999999998</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L27" s="11">
-        <f t="shared" si="12"/>
+      <c r="M27" s="11">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M27" s="11">
-        <f t="shared" si="12"/>
+      <c r="N27" s="11">
+        <f t="shared" si="19"/>
+        <v>723.80099999999993</v>
+      </c>
+      <c r="O27" s="144">
+        <f>O28+O29</f>
+        <v>738.971</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" ref="P27:S27" si="20">P28+P29</f>
+        <v>756.22</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" si="20"/>
+        <v>793.95699999999999</v>
+      </c>
+      <c r="R27" s="11">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N27" s="11">
-        <f t="shared" si="12"/>
+      <c r="S27" s="11">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O27" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11">
-        <f t="shared" si="12"/>
-        <v>386.22899999999998</v>
-      </c>
-      <c r="R27" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="11">
-        <f t="shared" si="12"/>
-        <v>723.80099999999993</v>
-      </c>
-      <c r="U27" s="14">
-        <f t="shared" si="12"/>
-        <v>738.971</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10">
@@ -13812,29 +13825,31 @@
         <v>738.56200000000001</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="K28" s="10">
+        <f>D28</f>
+        <v>385.82</v>
+      </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10">
-        <f>D28</f>
-        <v>385.82</v>
+      <c r="N28" s="10">
+        <v>723.41499999999996</v>
+      </c>
+      <c r="O28" s="143">
+        <f>E28</f>
+        <v>738.56200000000001</v>
+      </c>
+      <c r="P28" s="10">
+        <v>755.827</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>793.55499999999995</v>
       </c>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
-      <c r="T28" s="10">
-        <v>723.41499999999996</v>
-      </c>
-      <c r="U28" s="15">
-        <f>E28</f>
-        <v>738.56200000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10">
@@ -13844,29 +13859,31 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="K29" s="10">
+        <f>D29</f>
+        <v>0.40899999999999997</v>
+      </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10">
-        <f t="shared" ref="Q29:Q32" si="13">D29</f>
+      <c r="N29" s="10">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="O29" s="143">
+        <f>E29</f>
         <v>0.40899999999999997</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0.40200000000000002</v>
       </c>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="T29" s="10">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="U29" s="15">
-        <f t="shared" ref="U29:U32" si="14">E29</f>
-        <v>0.40899999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10">
@@ -13876,29 +13893,31 @@
         <v>23.076000000000001</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="K30" s="10">
+        <f>D30</f>
+        <v>10.723000000000001</v>
+      </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10">
-        <f t="shared" si="13"/>
-        <v>10.723000000000001</v>
+      <c r="N30" s="10">
+        <v>17.38</v>
+      </c>
+      <c r="O30" s="143">
+        <f>E30</f>
+        <v>23.076000000000001</v>
+      </c>
+      <c r="P30" s="10">
+        <v>23.241</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>29.225999999999999</v>
       </c>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
-      <c r="T30" s="10">
-        <v>17.38</v>
-      </c>
-      <c r="U30" s="15">
-        <f t="shared" si="14"/>
-        <v>23.076000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
@@ -13908,29 +13927,31 @@
         <v>15.198</v>
       </c>
       <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="K31" s="10">
+        <f>D31</f>
+        <v>11.215</v>
+      </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10">
-        <f t="shared" si="13"/>
-        <v>11.215</v>
+      <c r="N31" s="10">
+        <v>14.161</v>
+      </c>
+      <c r="O31" s="143">
+        <f>E31</f>
+        <v>15.198</v>
+      </c>
+      <c r="P31" s="10">
+        <v>17.177</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>18.030999999999999</v>
       </c>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
-      <c r="T31" s="10">
-        <v>14.161</v>
-      </c>
-      <c r="U31" s="15">
-        <f t="shared" si="14"/>
-        <v>15.198</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
@@ -13940,29 +13961,31 @@
         <v>26.244</v>
       </c>
       <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="K32" s="10">
+        <f>D32</f>
+        <v>19.335999999999999</v>
+      </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10">
-        <f t="shared" si="13"/>
-        <v>19.335999999999999</v>
+      <c r="N32" s="10">
+        <v>26.01</v>
+      </c>
+      <c r="O32" s="143">
+        <f>E32</f>
+        <v>26.244</v>
+      </c>
+      <c r="P32" s="10">
+        <v>29.803999999999998</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>31.149000000000001</v>
       </c>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
-      <c r="T32" s="10">
-        <v>26.01</v>
-      </c>
-      <c r="U32" s="15">
-        <f t="shared" si="14"/>
-        <v>26.244</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C33" s="11">
         <f>SUM(C28:C32)</f>
@@ -13977,57 +14000,49 @@
         <v>803.48900000000003</v>
       </c>
       <c r="J33" s="11">
-        <f t="shared" ref="J33:U33" si="15">SUM(J28:J32)</f>
+        <f t="shared" ref="J33:O33" si="21">SUM(J28:J32)</f>
         <v>0</v>
       </c>
       <c r="K33" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
+        <v>427.50299999999999</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L33" s="11">
-        <f t="shared" si="15"/>
+      <c r="M33" s="11">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M33" s="11">
-        <f t="shared" si="15"/>
+      <c r="N33" s="11">
+        <f t="shared" si="21"/>
+        <v>781.35199999999986</v>
+      </c>
+      <c r="O33" s="144">
+        <f t="shared" si="21"/>
+        <v>803.48900000000003</v>
+      </c>
+      <c r="P33" s="11">
+        <f t="shared" ref="P33:S33" si="22">SUM(P28:P32)</f>
+        <v>826.44200000000001</v>
+      </c>
+      <c r="Q33" s="14">
+        <f t="shared" si="22"/>
+        <v>872.36299999999994</v>
+      </c>
+      <c r="R33" s="11">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N33" s="11">
-        <f t="shared" si="15"/>
+      <c r="S33" s="11">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O33" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="11">
-        <f t="shared" si="15"/>
-        <v>427.50299999999999</v>
-      </c>
-      <c r="R33" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="11">
-        <f t="shared" si="15"/>
-        <v>781.35199999999986</v>
-      </c>
-      <c r="U33" s="14">
-        <f t="shared" si="15"/>
-        <v>803.48900000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -14037,29 +14052,31 @@
         <v>43.45</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="K34" s="10">
+        <f>D34</f>
+        <v>45.837000000000003</v>
+      </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10">
-        <f t="shared" ref="Q34:Q47" si="16">D34</f>
-        <v>45.837000000000003</v>
+      <c r="N34" s="10">
+        <v>42.73</v>
+      </c>
+      <c r="O34" s="143">
+        <f>E34</f>
+        <v>43.45</v>
+      </c>
+      <c r="P34" s="10">
+        <v>42.786000000000001</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>44.366999999999997</v>
       </c>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
-      <c r="T34" s="10">
-        <v>42.73</v>
-      </c>
-      <c r="U34" s="15">
-        <f t="shared" ref="U34:U39" si="17">E34</f>
-        <v>43.45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
@@ -14069,29 +14086,31 @@
         <v>36.987000000000002</v>
       </c>
       <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="K35" s="10">
+        <f>D35</f>
+        <v>45.695</v>
+      </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10">
-        <f t="shared" si="16"/>
-        <v>45.695</v>
+      <c r="N35" s="10">
+        <v>39.506</v>
+      </c>
+      <c r="O35" s="143">
+        <f>E35</f>
+        <v>36.987000000000002</v>
+      </c>
+      <c r="P35" s="10">
+        <v>34.683999999999997</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>32.073</v>
       </c>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
-      <c r="T35" s="10">
-        <v>39.506</v>
-      </c>
-      <c r="U35" s="15">
-        <f t="shared" si="17"/>
-        <v>36.987000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
@@ -14101,29 +14120,31 @@
         <v>23.177</v>
       </c>
       <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="K36" s="10">
+        <f>D36</f>
+        <v>15.983000000000001</v>
+      </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10">
-        <f t="shared" si="16"/>
-        <v>15.983000000000001</v>
+      <c r="N36" s="10">
+        <v>20.687000000000001</v>
+      </c>
+      <c r="O36" s="143">
+        <f>E36</f>
+        <v>23.177</v>
+      </c>
+      <c r="P36" s="10">
+        <v>24.507000000000001</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>26.696000000000002</v>
       </c>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
-      <c r="T36" s="10">
-        <v>20.687000000000001</v>
-      </c>
-      <c r="U36" s="15">
-        <f t="shared" si="17"/>
-        <v>23.177</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
@@ -14133,29 +14154,31 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+      <c r="K37" s="10">
+        <f>D37</f>
+        <v>0.68700000000000006</v>
+      </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10">
-        <f t="shared" si="16"/>
-        <v>0.68700000000000006</v>
+      <c r="N37" s="10">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="O37" s="143">
+        <f>E37</f>
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0.67200000000000004</v>
       </c>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
-      <c r="T37" s="10">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="U37" s="15">
-        <f t="shared" si="17"/>
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
@@ -14165,29 +14188,31 @@
         <v>173.84399999999999</v>
       </c>
       <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="K38" s="10">
+        <f>D38</f>
+        <v>84.415000000000006</v>
+      </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10">
-        <f t="shared" si="16"/>
-        <v>84.415000000000006</v>
+      <c r="N38" s="10">
+        <v>178.96799999999999</v>
+      </c>
+      <c r="O38" s="143">
+        <f>E38</f>
+        <v>173.84399999999999</v>
+      </c>
+      <c r="P38" s="10">
+        <v>168.72</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>163.595</v>
       </c>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
-      <c r="T38" s="10">
-        <v>178.96799999999999</v>
-      </c>
-      <c r="U38" s="15">
-        <f t="shared" si="17"/>
-        <v>173.84399999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -14197,29 +14222,31 @@
         <v>7.4169999999999998</v>
       </c>
       <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="K39" s="10">
+        <f>D39</f>
+        <v>8.9589999999999996</v>
+      </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10">
-        <f t="shared" si="16"/>
-        <v>8.9589999999999996</v>
+      <c r="N39" s="10">
+        <v>7.5330000000000004</v>
+      </c>
+      <c r="O39" s="143">
+        <f>E39</f>
+        <v>7.4169999999999998</v>
+      </c>
+      <c r="P39" s="10">
+        <v>10.6</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>10.071999999999999</v>
       </c>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
-      <c r="T39" s="10">
-        <v>7.5330000000000004</v>
-      </c>
-      <c r="U39" s="15">
-        <f t="shared" si="17"/>
-        <v>7.4169999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C40" s="11">
         <f>SUM(C33:C39)</f>
@@ -14234,57 +14261,49 @@
         <v>1089.05</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" ref="J40:U40" si="18">SUM(J33:J39)</f>
+        <f t="shared" ref="J40:O40" si="23">SUM(J33:J39)</f>
         <v>0</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
+        <v>629.07899999999984</v>
+      </c>
+      <c r="L40" s="11">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L40" s="11">
-        <f t="shared" si="18"/>
+      <c r="M40" s="11">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M40" s="11">
-        <f t="shared" si="18"/>
+      <c r="N40" s="11">
+        <f t="shared" si="23"/>
+        <v>1071.4239999999998</v>
+      </c>
+      <c r="O40" s="144">
+        <f t="shared" si="23"/>
+        <v>1089.05</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" ref="P40:S40" si="24">SUM(P33:P39)</f>
+        <v>1108.396</v>
+      </c>
+      <c r="Q40" s="14">
+        <f t="shared" si="24"/>
+        <v>1149.8379999999997</v>
+      </c>
+      <c r="R40" s="11">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N40" s="11">
-        <f t="shared" si="18"/>
+      <c r="S40" s="11">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="O40" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="18"/>
-        <v>629.07899999999984</v>
-      </c>
-      <c r="R40" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" si="18"/>
-        <v>1071.4239999999998</v>
-      </c>
-      <c r="U40" s="14">
-        <f t="shared" si="18"/>
-        <v>1089.05</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
@@ -14294,29 +14313,31 @@
         <v>13.597</v>
       </c>
       <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="K41" s="10">
+        <f>D41</f>
+        <v>8.89</v>
+      </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10">
-        <f t="shared" si="16"/>
-        <v>8.89</v>
+      <c r="N41" s="10">
+        <v>9.7379999999999995</v>
+      </c>
+      <c r="O41" s="143">
+        <f>E41</f>
+        <v>13.597</v>
+      </c>
+      <c r="P41" s="10">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>9.4179999999999993</v>
       </c>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
-      <c r="T41" s="10">
-        <v>9.7379999999999995</v>
-      </c>
-      <c r="U41" s="15">
-        <f t="shared" ref="U41:U44" si="19">E41</f>
-        <v>13.597</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
@@ -14326,29 +14347,31 @@
         <v>62.838000000000001</v>
       </c>
       <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
+      <c r="K42" s="10">
+        <f>D42</f>
+        <v>36.125999999999998</v>
+      </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10">
-        <f t="shared" si="16"/>
-        <v>36.125999999999998</v>
+      <c r="N42" s="10">
+        <v>62.601999999999997</v>
+      </c>
+      <c r="O42" s="143">
+        <f>E42</f>
+        <v>62.838000000000001</v>
+      </c>
+      <c r="P42" s="10">
+        <v>65.134</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>62.404000000000003</v>
       </c>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
-      <c r="T42" s="10">
-        <v>62.601999999999997</v>
-      </c>
-      <c r="U42" s="15">
-        <f t="shared" si="19"/>
-        <v>62.838000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
@@ -14358,29 +14381,31 @@
         <v>14.081</v>
       </c>
       <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+      <c r="K43" s="10">
+        <f>D43</f>
+        <v>14.864000000000001</v>
+      </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10">
-        <f t="shared" si="16"/>
-        <v>14.864000000000001</v>
+      <c r="N43" s="10">
+        <v>14.449</v>
+      </c>
+      <c r="O43" s="143">
+        <f>E43</f>
+        <v>14.081</v>
+      </c>
+      <c r="P43" s="10">
+        <v>13.625</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>13.009</v>
       </c>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="10">
-        <v>14.449</v>
-      </c>
-      <c r="U43" s="15">
-        <f t="shared" si="19"/>
-        <v>14.081</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -14390,29 +14415,31 @@
         <v>40.1</v>
       </c>
       <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
+      <c r="K44" s="10">
+        <f>D44</f>
+        <v>25.109000000000002</v>
+      </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10">
-        <f t="shared" si="16"/>
-        <v>25.109000000000002</v>
+      <c r="N44" s="10">
+        <v>32.866</v>
+      </c>
+      <c r="O44" s="143">
+        <f>E44</f>
+        <v>40.1</v>
+      </c>
+      <c r="P44" s="10">
+        <v>42.518999999999998</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>46.781999999999996</v>
       </c>
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
-      <c r="T44" s="10">
-        <v>32.866</v>
-      </c>
-      <c r="U44" s="15">
-        <f t="shared" si="19"/>
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C45" s="11">
         <f>SUM(C41:C44)</f>
@@ -14427,59 +14454,49 @@
         <v>130.61600000000001</v>
       </c>
       <c r="J45" s="11">
-        <f t="shared" ref="J45:U45" si="20">SUM(J41:J44)</f>
+        <f t="shared" ref="J45:O45" si="25">SUM(J41:J44)</f>
         <v>0</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
+        <v>84.989000000000004</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L45" s="11">
-        <f t="shared" si="20"/>
+      <c r="M45" s="11">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M45" s="11">
-        <f t="shared" si="20"/>
+      <c r="N45" s="11">
+        <f t="shared" si="25"/>
+        <v>119.655</v>
+      </c>
+      <c r="O45" s="144">
+        <f t="shared" si="25"/>
+        <v>130.61600000000001</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" ref="P45:S45" si="26">SUM(P41:P44)</f>
+        <v>129.74199999999999</v>
+      </c>
+      <c r="Q45" s="14">
+        <f t="shared" si="26"/>
+        <v>131.613</v>
+      </c>
+      <c r="R45" s="11">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N45" s="11">
-        <f t="shared" si="20"/>
+      <c r="S45" s="11">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O45" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="11">
-        <f t="shared" si="20"/>
-        <v>84.989000000000004</v>
-      </c>
-      <c r="R45" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="11">
-        <f t="shared" si="20"/>
-        <v>119.655</v>
-      </c>
-      <c r="U45" s="14">
-        <f t="shared" si="20"/>
-        <v>130.61600000000001</v>
-      </c>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10">
@@ -14489,29 +14506,31 @@
         <v>37.497999999999998</v>
       </c>
       <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
+      <c r="K46" s="10">
+        <f>D46</f>
+        <v>47.543999999999997</v>
+      </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10">
-        <f t="shared" si="16"/>
-        <v>47.543999999999997</v>
+      <c r="N46" s="10">
+        <v>40.015999999999998</v>
+      </c>
+      <c r="O46" s="143">
+        <f>E46</f>
+        <v>37.497999999999998</v>
+      </c>
+      <c r="P46" s="10">
+        <v>34.759</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>32.069000000000003</v>
       </c>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
-      <c r="T46" s="10">
-        <v>40.015999999999998</v>
-      </c>
-      <c r="U46" s="15">
-        <f t="shared" ref="U46:U47" si="21">E46</f>
-        <v>37.497999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -14521,29 +14540,31 @@
         <v>6.1589999999999998</v>
       </c>
       <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
+      <c r="K47" s="10">
+        <f>D47</f>
+        <v>0.876</v>
+      </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10">
-        <f t="shared" si="16"/>
-        <v>0.876</v>
+      <c r="N47" s="10">
+        <v>6.4089999999999998</v>
+      </c>
+      <c r="O47" s="143">
+        <f>E47</f>
+        <v>6.1589999999999998</v>
+      </c>
+      <c r="P47" s="10">
+        <v>6.4429999999999996</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>6.6559999999999997</v>
       </c>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
-      <c r="T47" s="10">
-        <v>6.4089999999999998</v>
-      </c>
-      <c r="U47" s="15">
-        <f t="shared" si="21"/>
-        <v>6.1589999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C48" s="11">
         <f>SUM(C45:C47)</f>
@@ -14558,57 +14579,49 @@
         <v>174.273</v>
       </c>
       <c r="J48" s="11">
-        <f t="shared" ref="J48:U48" si="22">SUM(J45:J47)</f>
+        <f t="shared" ref="J48:O48" si="27">SUM(J45:J47)</f>
         <v>0</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
+        <v>133.40900000000002</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="L48" s="11">
-        <f t="shared" si="22"/>
+      <c r="M48" s="11">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M48" s="11">
-        <f t="shared" si="22"/>
+      <c r="N48" s="11">
+        <f t="shared" si="27"/>
+        <v>166.07999999999998</v>
+      </c>
+      <c r="O48" s="144">
+        <f t="shared" si="27"/>
+        <v>174.273</v>
+      </c>
+      <c r="P48" s="11">
+        <f t="shared" ref="P48:S48" si="28">SUM(P45:P47)</f>
+        <v>170.94399999999999</v>
+      </c>
+      <c r="Q48" s="14">
+        <f t="shared" si="28"/>
+        <v>170.33800000000002</v>
+      </c>
+      <c r="R48" s="11">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N48" s="11">
-        <f t="shared" si="22"/>
+      <c r="S48" s="11">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O48" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="11">
-        <f t="shared" si="22"/>
-        <v>133.40900000000002</v>
-      </c>
-      <c r="R48" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="11">
-        <f t="shared" si="22"/>
-        <v>166.07999999999998</v>
-      </c>
-      <c r="U48" s="14">
-        <f t="shared" si="22"/>
-        <v>174.273</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
@@ -14619,55 +14632,66 @@
         <f>E40-E48</f>
         <v>914.77699999999993</v>
       </c>
+      <c r="J49" s="10">
+        <f>J40-J48</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="10">
+        <f>K40-K48</f>
+        <v>495.66999999999985</v>
+      </c>
+      <c r="L49" s="10">
+        <f t="shared" ref="L49:O49" si="29">L40-L48</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="10">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="N49" s="10">
-        <f>N40-N48</f>
+        <f t="shared" si="29"/>
+        <v>905.34399999999982</v>
+      </c>
+      <c r="O49" s="143">
+        <f t="shared" si="29"/>
+        <v>914.77699999999993</v>
+      </c>
+      <c r="P49" s="10">
+        <f t="shared" ref="P49:S49" si="30">P40-P48</f>
+        <v>937.452</v>
+      </c>
+      <c r="Q49" s="15">
+        <f t="shared" si="30"/>
+        <v>979.49999999999977</v>
+      </c>
+      <c r="R49" s="10">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="O49" s="10">
-        <f>O40-O48</f>
+      <c r="S49" s="10">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P49" s="10">
-        <f>P40-P48</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="10">
-        <f>Q40-Q48</f>
-        <v>495.66999999999985</v>
-      </c>
-      <c r="R49" s="10">
-        <f t="shared" ref="R49:U49" si="23">R40-R48</f>
-        <v>0</v>
-      </c>
-      <c r="S49" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="10">
-        <f t="shared" si="23"/>
-        <v>905.34399999999982</v>
-      </c>
-      <c r="U49" s="15">
-        <f t="shared" si="23"/>
-        <v>914.77699999999993</v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
-      <c r="U51" s="16"/>
-    </row>
-    <row r="69" spans="5:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="42"/>
-      <c r="U69" s="42"/>
-    </row>
-    <row r="70" spans="5:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="53"/>
+      <c r="O51" s="148"/>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="69" spans="5:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="41"/>
+      <c r="O69" s="149"/>
+      <c r="Q69" s="41"/>
+    </row>
+    <row r="70" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E70" s="16"/>
-      <c r="U70" s="16"/>
+      <c r="O70" s="148"/>
+      <c r="Q70" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -14684,14 +14708,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -14705,10 +14729,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14716,7 +14740,7 @@
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2021</v>
       </c>
@@ -14726,10 +14750,13 @@
       <c r="D1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10">
@@ -14738,10 +14765,13 @@
       <c r="D2" s="10">
         <v>143000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="10">
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10">
@@ -14750,13 +14780,16 @@
       <c r="D3" s="10">
         <v>1958</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="10">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -14788,13 +14821,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -14805,13 +14838,13 @@
         <v>22.934999000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -14825,7 +14858,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -14840,7 +14873,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -23233,8 +23266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23251,25 +23284,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="134" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+        <v>88</v>
+      </c>
+      <c r="H1" s="132" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -23282,12 +23315,12 @@
         <f>C2/C3-1</f>
         <v>9.0188737351517556E-3</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
@@ -23300,23 +23333,23 @@
         <f t="shared" ref="D3:D32" si="0">C3/C4-1</f>
         <v>-4.3350168350168361E-2</v>
       </c>
-      <c r="H3" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="69" t="s">
-        <v>101</v>
+      <c r="H3" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="67" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -23330,27 +23363,27 @@
         <f t="shared" si="0"/>
         <v>-1.7369727047146344E-2</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="68">
         <f>$I$19-3*$I$23</f>
         <v>-0.23230718037350073</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="69">
         <f>H4</f>
         <v>-0.23230718037350073</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="70">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="72" t="str">
+      <c r="K4" s="70" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -23,23%</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="71">
         <f>J4/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="72">
         <f>L4</f>
         <v>0</v>
       </c>
@@ -23366,27 +23399,27 @@
         <f t="shared" si="0"/>
         <v>-5.1020408163265363E-2</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="73">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.18771987912597121</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="74">
         <f>H5</f>
         <v>-0.18771987912597121</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="75">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="78" t="str">
+      <c r="K5" s="76" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-23,23% to -18,77%</v>
       </c>
-      <c r="L5" s="79">
+      <c r="L5" s="77">
         <f>J5/$I$31</f>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="M5" s="80">
+      <c r="M5" s="78">
         <f>M4+L5</f>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -23402,27 +23435,27 @@
         <f t="shared" si="0"/>
         <v>-2.112950360624255E-2</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="73">
         <f>$I$19-1.8*$I$23</f>
         <v>-0.14313257787844172</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="74">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-0.14313257787844172</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="75">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="78" t="str">
+      <c r="K6" s="76" t="str">
         <f t="shared" si="1"/>
         <v>-18,77% to -14,31%</v>
       </c>
-      <c r="L6" s="79">
+      <c r="L6" s="77">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>0</v>
       </c>
-      <c r="M6" s="80">
+      <c r="M6" s="78">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -23438,27 +23471,27 @@
         <f t="shared" si="0"/>
         <v>9.6923767383059412E-2</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="73">
         <f>$I$19-1.2*$I$23</f>
         <v>-9.8545276630912226E-2</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="74">
         <f t="shared" si="2"/>
         <v>-9.8545276630912226E-2</v>
       </c>
-      <c r="J7" s="77">
+      <c r="J7" s="75">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="78" t="str">
+      <c r="K7" s="76" t="str">
         <f t="shared" si="1"/>
         <v>-14,31% to -9,85%</v>
       </c>
-      <c r="L7" s="79">
+      <c r="L7" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M7" s="80">
+      <c r="M7" s="78">
         <f t="shared" si="5"/>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -23474,27 +23507,27 @@
         <f t="shared" si="0"/>
         <v>-5.9080057854086432E-2</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="73">
         <f>$I$19-0.6*$I$23</f>
         <v>-5.3957975383382734E-2</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="74">
         <f t="shared" si="2"/>
         <v>-5.3957975383382734E-2</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="75">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K8" s="78" t="str">
+      <c r="K8" s="76" t="str">
         <f t="shared" si="1"/>
         <v>-9,85% to -5,40%</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="77">
         <f t="shared" si="4"/>
         <v>0.19354838709677419</v>
       </c>
-      <c r="M8" s="80">
+      <c r="M8" s="78">
         <f t="shared" si="5"/>
         <v>0.22580645161290322</v>
       </c>
@@ -23510,27 +23543,27 @@
         <f t="shared" si="0"/>
         <v>-9.2805758734020083E-2</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="73">
         <f>$I$19</f>
         <v>-9.3706741358532408E-3</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="74">
         <f t="shared" si="2"/>
         <v>-9.3706741358532408E-3</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="75">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K9" s="78" t="str">
+      <c r="K9" s="76" t="str">
         <f t="shared" si="1"/>
         <v>-5,40% to -0,94%</v>
       </c>
-      <c r="L9" s="79">
+      <c r="L9" s="77">
         <f t="shared" si="4"/>
         <v>0.41935483870967744</v>
       </c>
-      <c r="M9" s="80">
+      <c r="M9" s="78">
         <f t="shared" si="5"/>
         <v>0.64516129032258063</v>
       </c>
@@ -23546,27 +23579,27 @@
         <f t="shared" si="0"/>
         <v>-2.7632074151801356E-2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="73">
         <f>$I$19+0.6*$I$23</f>
         <v>3.5216627111676252E-2</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="74">
         <f t="shared" si="2"/>
         <v>3.5216627111676252E-2</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="75">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K10" s="78" t="str">
+      <c r="K10" s="76" t="str">
         <f t="shared" si="1"/>
         <v>-0,94% to 3,52%</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="77">
         <f t="shared" si="4"/>
         <v>0.12903225806451613</v>
       </c>
-      <c r="M10" s="80">
+      <c r="M10" s="78">
         <f t="shared" si="5"/>
         <v>0.77419354838709675</v>
       </c>
@@ -23582,27 +23615,27 @@
         <f t="shared" si="0"/>
         <v>-4.3812709030100261E-2</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="73">
         <f>$I$19+1.2*$I$23</f>
         <v>7.9803928359205745E-2</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="74">
         <f t="shared" si="2"/>
         <v>7.9803928359205745E-2</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K11" s="78" t="str">
+      <c r="K11" s="76" t="str">
         <f t="shared" si="1"/>
         <v>3,52% to 7,98%</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="77">
         <f t="shared" si="4"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="M11" s="80">
+      <c r="M11" s="78">
         <f t="shared" si="5"/>
         <v>0.80645161290322576</v>
       </c>
@@ -23618,27 +23651,27 @@
         <f t="shared" si="0"/>
         <v>-1.222332342253063E-2</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="73">
         <f>$I$19+1.8*$I$23</f>
         <v>0.12439122960673524</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="74">
         <f t="shared" si="2"/>
         <v>0.12439122960673524</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="75">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K12" s="78" t="str">
+      <c r="K12" s="76" t="str">
         <f t="shared" si="1"/>
         <v>7,98% to 12,44%</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="77">
         <f t="shared" si="4"/>
         <v>0.16129032258064516</v>
       </c>
-      <c r="M12" s="80">
+      <c r="M12" s="78">
         <f t="shared" si="5"/>
         <v>0.96774193548387089</v>
       </c>
@@ -23654,27 +23687,27 @@
         <f t="shared" si="0"/>
         <v>9.35693641618498E-2</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="73">
         <f>$I$19+2.4*$I$23</f>
         <v>0.16897853085426473</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="74">
         <f t="shared" si="2"/>
         <v>0.16897853085426473</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K13" s="78" t="str">
+      <c r="K13" s="76" t="str">
         <f t="shared" si="1"/>
         <v>12,44% to 16,90%</v>
       </c>
-      <c r="L13" s="79">
+      <c r="L13" s="77">
         <f t="shared" si="4"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="M13" s="80">
+      <c r="M13" s="78">
         <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
@@ -23690,27 +23723,27 @@
         <f t="shared" si="0"/>
         <v>0.12201053911633553</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="73">
         <f>$I$19+3*$I$23</f>
         <v>0.21356583210179425</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="74">
         <f t="shared" si="2"/>
         <v>0.21356583210179425</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="75">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="78" t="str">
+      <c r="K14" s="76" t="str">
         <f t="shared" si="1"/>
         <v>16,90% to 21,36%</v>
       </c>
-      <c r="L14" s="79">
+      <c r="L14" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="80">
+      <c r="M14" s="78">
         <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
@@ -23726,23 +23759,23 @@
         <f t="shared" si="0"/>
         <v>-2.3357086302454477E-2</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="82">
+      <c r="H15" s="79"/>
+      <c r="I15" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="80">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="82" t="str">
+      <c r="K15" s="80" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 21,36%</v>
       </c>
-      <c r="L15" s="83">
+      <c r="L15" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="83">
+      <c r="M15" s="81">
         <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
@@ -23758,8 +23791,8 @@
         <f t="shared" si="0"/>
         <v>-3.5509773367324304E-2</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="M16" s="85"/>
+      <c r="H16" s="82"/>
+      <c r="M16" s="83"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -23772,11 +23805,11 @@
         <f t="shared" si="0"/>
         <v>-4.9391717325228957E-3</v>
       </c>
-      <c r="H17" s="137" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="138"/>
-      <c r="M17" s="85"/>
+      <c r="H17" s="135" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="136"/>
+      <c r="M17" s="83"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -23789,9 +23822,9 @@
         <f t="shared" si="0"/>
         <v>-5.2555829641618756E-2</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
-      <c r="M18" s="85"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="138"/>
+      <c r="M18" s="83"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -23804,14 +23837,14 @@
         <f t="shared" si="0"/>
         <v>-4.404673241729995E-2</v>
       </c>
-      <c r="H19" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="123">
+      <c r="H19" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="121">
         <f>AVERAGE(D:D)</f>
         <v>-9.3706741358532408E-3</v>
       </c>
-      <c r="M19" s="85"/>
+      <c r="M19" s="83"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -23824,14 +23857,14 @@
         <f t="shared" si="0"/>
         <v>1.5019211142829558E-2</v>
       </c>
-      <c r="H20" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="123">
+      <c r="H20" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="121">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>1.3346859511868888E-2</v>
       </c>
-      <c r="M20" s="85"/>
+      <c r="M20" s="83"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -23844,14 +23877,14 @@
         <f t="shared" si="0"/>
         <v>-4.1834004077443199E-2</v>
       </c>
-      <c r="H21" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="123">
+      <c r="H21" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="121">
         <f>MEDIAN(D:D)</f>
         <v>-2.7632074151801356E-2</v>
       </c>
-      <c r="M21" s="85"/>
+      <c r="M21" s="83"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -23864,14 +23897,14 @@
         <f t="shared" si="0"/>
         <v>-5.5028524508901722E-2</v>
       </c>
-      <c r="H22" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="123" t="e">
+      <c r="H22" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="121" t="e">
         <f>MODE(D:D)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="85"/>
+      <c r="M22" s="83"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -23884,14 +23917,14 @@
         <f t="shared" si="0"/>
         <v>0.10753072180492884</v>
       </c>
-      <c r="H23" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="123">
+      <c r="H23" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="121">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>7.4312168745882493E-2</v>
       </c>
-      <c r="M23" s="85"/>
+      <c r="M23" s="83"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -23904,14 +23937,14 @@
         <f t="shared" si="0"/>
         <v>3.705041638029738E-2</v>
       </c>
-      <c r="H24" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="123">
+      <c r="H24" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="121">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>5.5222984237165143E-3</v>
       </c>
-      <c r="M24" s="85"/>
+      <c r="M24" s="83"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -23924,14 +23957,14 @@
         <f t="shared" si="0"/>
         <v>8.814237502539024E-2</v>
       </c>
-      <c r="H25" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="124">
+      <c r="H25" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="122">
         <f>KURT(D:D)</f>
         <v>0.850501256942918</v>
       </c>
-      <c r="M25" s="85"/>
+      <c r="M25" s="83"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -23944,14 +23977,14 @@
         <f t="shared" si="0"/>
         <v>-0.19657037154652268</v>
       </c>
-      <c r="H26" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="124">
+      <c r="H26" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="122">
         <f>SKEW(D:D)</f>
         <v>0.37954038733571094</v>
       </c>
-      <c r="M26" s="85"/>
+      <c r="M26" s="83"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -23964,14 +23997,14 @@
         <f t="shared" si="0"/>
         <v>0.16672841793256765</v>
       </c>
-      <c r="H27" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" s="123">
+      <c r="H27" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="121">
         <f>I29-I28</f>
         <v>0.36329878947909033</v>
       </c>
-      <c r="M27" s="85"/>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -23984,14 +24017,14 @@
         <f t="shared" si="0"/>
         <v>-6.963116166839034E-2</v>
       </c>
-      <c r="H28" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="123">
+      <c r="H28" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="121">
         <f>MIN(D:D)</f>
         <v>-0.19657037154652268</v>
       </c>
-      <c r="M28" s="85"/>
+      <c r="M28" s="83"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -24004,14 +24037,14 @@
         <f t="shared" si="0"/>
         <v>-7.9923911198099828E-2</v>
       </c>
-      <c r="H29" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="123">
+      <c r="H29" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="121">
         <f>MAX(D:D)</f>
         <v>0.16672841793256765</v>
       </c>
-      <c r="M29" s="85"/>
+      <c r="M29" s="83"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -24024,14 +24057,14 @@
         <f t="shared" si="0"/>
         <v>-3.3415022483599732E-2</v>
       </c>
-      <c r="H30" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="124">
+      <c r="H30" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="122">
         <f>SUM(D:D)</f>
         <v>-0.29049089821145047</v>
       </c>
-      <c r="M30" s="85"/>
+      <c r="M30" s="83"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
@@ -24044,14 +24077,14 @@
         <f t="shared" si="0"/>
         <v>-5.4492782608695611E-2</v>
       </c>
-      <c r="H31" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="64">
+      <c r="H31" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="62">
         <f>COUNT(D:D)</f>
         <v>31</v>
       </c>
-      <c r="M31" s="85"/>
+      <c r="M31" s="83"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -24064,8 +24097,8 @@
         <f t="shared" si="0"/>
         <v>3.3243517018374247E-2</v>
       </c>
-      <c r="H32" s="89"/>
-      <c r="M32" s="85"/>
+      <c r="H32" s="87"/>
+      <c r="M32" s="83"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -24074,578 +24107,578 @@
       <c r="C33" s="18">
         <v>33.389999000000003</v>
       </c>
-      <c r="H33" s="90"/>
-      <c r="I33" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="J33" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="K33" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="L33" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="M33" s="85"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="83"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="I34" s="79">
+      <c r="H34" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="77">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>7.6923720370078441E-2</v>
       </c>
-      <c r="J34" s="77">
+      <c r="J34" s="75">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="K34" s="79">
+      <c r="K34" s="77">
         <f>J34/$I$31</f>
         <v>0.32258064516129031</v>
       </c>
-      <c r="L34" s="80">
+      <c r="L34" s="78">
         <f>K34*I34</f>
         <v>2.4814103345186592E-2</v>
       </c>
-      <c r="M34" s="85"/>
+      <c r="M34" s="83"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" s="79">
+      <c r="H35" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="77">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>-5.0463242948201661E-2</v>
       </c>
-      <c r="J35" s="77">
+      <c r="J35" s="75">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>21</v>
       </c>
-      <c r="K35" s="79">
+      <c r="K35" s="77">
         <f>J35/$I$31</f>
         <v>0.67741935483870963</v>
       </c>
-      <c r="L35" s="80">
+      <c r="L35" s="78">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>-3.4184777481039832E-2</v>
       </c>
-      <c r="M35" s="85"/>
+      <c r="M35" s="83"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="82">
+      <c r="H36" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="80">
         <v>0</v>
       </c>
-      <c r="J36" s="82">
+      <c r="J36" s="80">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="95">
+      <c r="K36" s="93">
         <f>J36/$I$31</f>
         <v>0</v>
       </c>
-      <c r="L36" s="83">
+      <c r="L36" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="85"/>
+      <c r="M36" s="83"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="89"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="85"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="83"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="K38" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="L38" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="M38" s="92" t="s">
-        <v>126</v>
+      <c r="H38" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="M38" s="90" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="97">
+      <c r="H39" s="95">
         <v>1</v>
       </c>
-      <c r="I39" s="79">
+      <c r="I39" s="77">
         <f>$I$19+($H39*$I$23)</f>
         <v>6.4941494610029252E-2</v>
       </c>
-      <c r="J39" s="79">
+      <c r="J39" s="77">
         <f>$I$19-($H39*$I$23)</f>
         <v>-8.3682842881735733E-2</v>
       </c>
-      <c r="K39" s="77">
+      <c r="K39" s="75">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>23</v>
       </c>
-      <c r="L39" s="79">
+      <c r="L39" s="77">
         <f>K39/$I$31</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="M39" s="80">
+      <c r="M39" s="78">
         <v>0.68269999999999997</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="97">
+      <c r="H40" s="95">
         <v>2</v>
       </c>
-      <c r="I40" s="79">
+      <c r="I40" s="77">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.13925366335591174</v>
       </c>
-      <c r="J40" s="79">
+      <c r="J40" s="77">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.15799501162761823</v>
       </c>
-      <c r="K40" s="77">
+      <c r="K40" s="75">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>29</v>
       </c>
-      <c r="L40" s="79">
+      <c r="L40" s="77">
         <f>K40/$I$31</f>
         <v>0.93548387096774188</v>
       </c>
-      <c r="M40" s="80">
+      <c r="M40" s="78">
         <v>0.95450000000000002</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="97">
+      <c r="H41" s="95">
         <v>3</v>
       </c>
-      <c r="I41" s="79">
+      <c r="I41" s="77">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.21356583210179425</v>
       </c>
-      <c r="J41" s="79">
+      <c r="J41" s="77">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.23230718037350073</v>
       </c>
-      <c r="K41" s="77">
+      <c r="K41" s="75">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>31</v>
       </c>
-      <c r="L41" s="79">
+      <c r="L41" s="77">
         <f>K41/$I$31</f>
         <v>1</v>
       </c>
-      <c r="M41" s="98">
+      <c r="M41" s="96">
         <v>0.99729999999999996</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="75"/>
-      <c r="M42" s="98"/>
+      <c r="H42" s="73"/>
+      <c r="M42" s="96"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="141" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="143"/>
+      <c r="H43" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="141"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H44" s="99">
+      <c r="H44" s="97">
         <v>0.01</v>
       </c>
-      <c r="I44" s="100">
+      <c r="I44" s="98">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.16544098770277191</v>
       </c>
-      <c r="J44" s="101">
+      <c r="J44" s="99">
         <v>0.2</v>
       </c>
-      <c r="K44" s="100">
+      <c r="K44" s="98">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-5.4492782608695611E-2</v>
       </c>
-      <c r="L44" s="101">
+      <c r="L44" s="99">
         <v>0.85</v>
       </c>
-      <c r="M44" s="102">
+      <c r="M44" s="100">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>9.085586959362002E-2</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H45" s="103">
+      <c r="H45" s="101">
         <v>0.02</v>
       </c>
-      <c r="I45" s="104">
+      <c r="I45" s="102">
         <f t="shared" si="7"/>
         <v>-0.13431160385902111</v>
       </c>
-      <c r="J45" s="105">
+      <c r="J45" s="103">
         <v>0.25</v>
       </c>
-      <c r="K45" s="104">
+      <c r="K45" s="102">
         <f t="shared" si="8"/>
         <v>-5.178811890244206E-2</v>
       </c>
-      <c r="L45" s="105">
+      <c r="L45" s="103">
         <v>0.86</v>
       </c>
-      <c r="M45" s="106">
+      <c r="M45" s="104">
         <f t="shared" si="9"/>
         <v>9.2483966334557896E-2</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H46" s="103">
+      <c r="H46" s="101">
         <v>0.03</v>
       </c>
-      <c r="I46" s="104">
+      <c r="I46" s="102">
         <f t="shared" si="7"/>
         <v>-0.10318222001527035</v>
       </c>
-      <c r="J46" s="105">
+      <c r="J46" s="103">
         <v>0.3</v>
       </c>
-      <c r="K46" s="104">
+      <c r="K46" s="102">
         <f t="shared" si="8"/>
         <v>-4.404673241729995E-2</v>
       </c>
-      <c r="L46" s="105">
+      <c r="L46" s="103">
         <v>0.87</v>
       </c>
-      <c r="M46" s="106">
+      <c r="M46" s="104">
         <f t="shared" si="9"/>
         <v>9.3904804483970761E-2</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H47" s="103">
+      <c r="H47" s="101">
         <v>0.04</v>
       </c>
-      <c r="I47" s="104">
+      <c r="I47" s="102">
         <f t="shared" si="7"/>
         <v>-9.0229389226836029E-2</v>
       </c>
-      <c r="J47" s="105">
+      <c r="J47" s="103">
         <v>0.35</v>
       </c>
-      <c r="K47" s="104">
+      <c r="K47" s="102">
         <f t="shared" si="8"/>
         <v>-4.3581438690134311E-2</v>
       </c>
-      <c r="L47" s="105">
+      <c r="L47" s="103">
         <v>0.88</v>
       </c>
-      <c r="M47" s="106">
+      <c r="M47" s="104">
         <f t="shared" si="9"/>
         <v>9.4911125450333644E-2</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H48" s="103">
+      <c r="H48" s="101">
         <v>0.05</v>
       </c>
-      <c r="I48" s="104">
+      <c r="I48" s="102">
         <f t="shared" si="7"/>
         <v>-8.6364834966059956E-2</v>
       </c>
-      <c r="J48" s="105">
+      <c r="J48" s="103">
         <v>0.4</v>
       </c>
-      <c r="K48" s="104">
+      <c r="K48" s="102">
         <f t="shared" si="8"/>
         <v>-4.1834004077443199E-2</v>
       </c>
-      <c r="L48" s="105">
+      <c r="L48" s="103">
         <v>0.89</v>
       </c>
-      <c r="M48" s="106">
+      <c r="M48" s="104">
         <f t="shared" si="9"/>
         <v>9.5917446416696528E-2</v>
       </c>
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H49" s="103">
+      <c r="H49" s="101">
         <v>0.06</v>
       </c>
-      <c r="I49" s="104">
+      <c r="I49" s="102">
         <f t="shared" si="7"/>
         <v>-8.2500280705283882E-2</v>
       </c>
-      <c r="J49" s="105">
+      <c r="J49" s="103">
         <v>0.45</v>
       </c>
-      <c r="K49" s="104">
+      <c r="K49" s="102">
         <f t="shared" si="8"/>
         <v>-3.4462397925462018E-2</v>
       </c>
-      <c r="L49" s="105">
+      <c r="L49" s="103">
         <v>0.9</v>
       </c>
-      <c r="M49" s="106">
+      <c r="M49" s="104">
         <f t="shared" si="9"/>
         <v>9.6923767383059412E-2</v>
       </c>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H50" s="103">
+      <c r="H50" s="101">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="104">
+      <c r="I50" s="102">
         <f t="shared" si="7"/>
         <v>-7.889463624512888E-2</v>
       </c>
-      <c r="J50" s="105">
+      <c r="J50" s="103">
         <v>0.5</v>
       </c>
-      <c r="K50" s="104">
+      <c r="K50" s="102">
         <f t="shared" si="8"/>
         <v>-2.7632074151801356E-2</v>
       </c>
-      <c r="L50" s="105">
+      <c r="L50" s="103">
         <v>0.91</v>
       </c>
-      <c r="M50" s="106">
+      <c r="M50" s="104">
         <f t="shared" si="9"/>
         <v>0.10010585370962025</v>
       </c>
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H51" s="103">
+      <c r="H51" s="101">
         <v>0.08</v>
       </c>
-      <c r="I51" s="104">
+      <c r="I51" s="102">
         <f t="shared" si="7"/>
         <v>-7.5806811386216033E-2</v>
       </c>
-      <c r="J51" s="105">
+      <c r="J51" s="103">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="104">
+      <c r="K51" s="102">
         <f t="shared" si="8"/>
         <v>-2.2243294954348514E-2</v>
       </c>
-      <c r="L51" s="105">
+      <c r="L51" s="103">
         <v>0.92</v>
       </c>
-      <c r="M51" s="106">
+      <c r="M51" s="104">
         <f t="shared" si="9"/>
         <v>0.10328794003618108</v>
       </c>
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H52" s="103">
+      <c r="H52" s="101">
         <v>0.09</v>
       </c>
-      <c r="I52" s="104">
+      <c r="I52" s="102">
         <f t="shared" si="7"/>
         <v>-7.2718986527303187E-2</v>
       </c>
-      <c r="J52" s="105">
+      <c r="J52" s="103">
         <v>0.6</v>
       </c>
-      <c r="K52" s="104">
+      <c r="K52" s="102">
         <f t="shared" si="8"/>
         <v>-1.7369727047146344E-2</v>
       </c>
-      <c r="L52" s="105">
+      <c r="L52" s="103">
         <v>0.93</v>
       </c>
-      <c r="M52" s="106">
+      <c r="M52" s="104">
         <f t="shared" si="9"/>
         <v>0.10647002636274192</v>
       </c>
     </row>
     <row r="53" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H53" s="103">
+      <c r="H53" s="101">
         <v>0.1</v>
       </c>
-      <c r="I53" s="104">
+      <c r="I53" s="102">
         <f t="shared" si="7"/>
         <v>-6.963116166839034E-2</v>
       </c>
-      <c r="J53" s="105">
+      <c r="J53" s="103">
         <v>0.65</v>
       </c>
-      <c r="K53" s="104">
+      <c r="K53" s="102">
         <f t="shared" si="8"/>
         <v>-8.5812475775267627E-3</v>
       </c>
-      <c r="L53" s="105">
+      <c r="L53" s="103">
         <v>0.94</v>
       </c>
-      <c r="M53" s="106">
+      <c r="M53" s="104">
         <f t="shared" si="9"/>
         <v>0.11042668526721017</v>
       </c>
     </row>
     <row r="54" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H54" s="103">
+      <c r="H54" s="101">
         <v>0.11</v>
       </c>
-      <c r="I54" s="104">
+      <c r="I54" s="102">
         <f t="shared" si="7"/>
         <v>-6.646583052409917E-2</v>
       </c>
-      <c r="J54" s="105">
+      <c r="J54" s="103">
         <v>0.7</v>
       </c>
-      <c r="K54" s="104">
+      <c r="K54" s="102">
         <f t="shared" si="8"/>
         <v>9.0188737351517556E-3</v>
       </c>
-      <c r="L54" s="105">
+      <c r="L54" s="103">
         <v>0.95</v>
       </c>
-      <c r="M54" s="106">
+      <c r="M54" s="104">
         <f t="shared" si="9"/>
         <v>0.11477063046063218</v>
       </c>
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H55" s="103">
+      <c r="H55" s="101">
         <v>0.12</v>
       </c>
-      <c r="I55" s="104">
+      <c r="I55" s="102">
         <f t="shared" si="7"/>
         <v>-6.3300499379808001E-2</v>
       </c>
-      <c r="J55" s="105">
+      <c r="J55" s="103">
         <v>0.75</v>
       </c>
-      <c r="K55" s="104">
+      <c r="K55" s="102">
         <f t="shared" si="8"/>
         <v>2.4131364080601903E-2</v>
       </c>
-      <c r="L55" s="105">
+      <c r="L55" s="103">
         <v>0.96</v>
       </c>
-      <c r="M55" s="106">
+      <c r="M55" s="104">
         <f t="shared" si="9"/>
         <v>0.11911457565405414</v>
       </c>
     </row>
     <row r="56" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H56" s="103">
+      <c r="H56" s="101">
         <v>0.13</v>
       </c>
-      <c r="I56" s="104">
+      <c r="I56" s="102">
         <f t="shared" si="7"/>
         <v>-6.0135168235516817E-2</v>
       </c>
-      <c r="J56" s="105">
+      <c r="J56" s="103">
         <v>0.8</v>
       </c>
-      <c r="K56" s="104">
+      <c r="K56" s="102">
         <f t="shared" si="8"/>
         <v>3.705041638029738E-2</v>
       </c>
-      <c r="L56" s="105">
+      <c r="L56" s="103">
         <v>0.97</v>
       </c>
-      <c r="M56" s="106">
+      <c r="M56" s="104">
         <f t="shared" si="9"/>
         <v>0.12648232699795864</v>
       </c>
     </row>
     <row r="57" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H57" s="103">
+      <c r="H57" s="101">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="104">
+      <c r="I57" s="102">
         <f t="shared" si="7"/>
         <v>-5.8269751185049491E-2</v>
       </c>
-      <c r="J57" s="105"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="105">
+      <c r="J57" s="103"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="103">
         <v>0.98</v>
       </c>
-      <c r="M57" s="106">
+      <c r="M57" s="104">
         <f t="shared" si="9"/>
         <v>0.13989769064282831</v>
       </c>
     </row>
     <row r="58" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H58" s="107">
+      <c r="H58" s="105">
         <v>0.15</v>
       </c>
-      <c r="I58" s="108">
+      <c r="I58" s="106">
         <f t="shared" si="7"/>
         <v>-5.7054291181494077E-2</v>
       </c>
-      <c r="J58" s="109"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="110">
+      <c r="J58" s="107"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="108">
         <v>0.99</v>
       </c>
-      <c r="M58" s="111">
+      <c r="M58" s="109">
         <f t="shared" si="9"/>
         <v>0.15331305428769798</v>
       </c>
     </row>
     <row r="59" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H60" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="I60" s="113">
+      <c r="H60" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" s="111">
         <v>-0.15</v>
       </c>
     </row>
     <row r="61" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H61" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="I61" s="115">
+      <c r="H61" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="I61" s="113">
         <v>-0.3</v>
       </c>
       <c r="L61" s="18"/>
     </row>
     <row r="62" spans="8:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H62" s="116"/>
+      <c r="H62" s="114"/>
     </row>
     <row r="63" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H63" s="112" t="s">
-        <v>130</v>
-      </c>
-      <c r="I63" s="117">
+      <c r="H63" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="I63" s="115">
         <v>23.29</v>
       </c>
     </row>
     <row r="64" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H64" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="I64" s="119">
+      <c r="H64" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="I64" s="117">
         <f>I63*(1-I60)</f>
         <v>26.783499999999997</v>
       </c>
     </row>
     <row r="65" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H65" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="I65" s="120">
+      <c r="H65" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" s="118">
         <f>I63*(1+I61)</f>
         <v>16.302999999999997</v>
       </c>

--- a/Business - Technology Services/KVYO.xlsx
+++ b/Business - Technology Services/KVYO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EDDFB3-5094-4810-8D86-E89549565F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001277CF-EDCA-4F27-83AE-4B6B5DA3748B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,30 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Model!$J$16:$P$16</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Model!$J$16:$S$16</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Model!$J$17:$P$17</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Model!$J$17:$S$17</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Model!$J$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Model!$J$2:$S$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Model!$B$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Model!$J$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Model!$J$2:$S$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$2:$P$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Model!$J$3:$P$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Model!$J$3:$S$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Model!$J$4:$P$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Model!$J$4:$S$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$2:$S$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$3:$P$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$J$3:$S$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$J$4:$P$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$J$4:$S$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$16</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$17</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$20</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$16:$S$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$20:$S$20</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$2:$S$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$J$2:$S$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$J$3:$S$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$J$4:$S$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -332,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="195">
   <si>
     <t>Price</t>
   </si>
@@ -908,6 +894,15 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Non-GAAP EPS</t>
+  </si>
+  <si>
+    <t>Non-GAAP Net Income</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1639,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1792,6 +1787,13 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1849,19 +1851,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1995,6 +1994,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4EEB-4735-AE8C-6B077AF8971C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2009,6 +2013,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4EEB-4735-AE8C-6B077AF8971C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2207,7 +2216,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$20</c:f>
+              <c:f>Model!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2284,7 +2293,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$20:$S$20</c:f>
+              <c:f>Model!$J$23:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2851,7 +2860,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$20</c:f>
+              <c:f>Model!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2938,7 +2947,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$20:$G$20</c:f>
+              <c:f>Model!$C$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3328,6 +3337,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4AF1-4274-A25D-A2DF8B4EAB1F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3342,6 +3356,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4AF1-4274-A25D-A2DF8B4EAB1F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3540,7 +3559,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$18</c:f>
+              <c:f>Model!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3617,7 +3636,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$18:$S$18</c:f>
+              <c:f>Model!$J$21:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4124,7 +4143,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$24</c:f>
+              <c:f>Model!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4199,7 +4218,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$24:$F$24</c:f>
+              <c:f>Model!$C$27:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4569,7 +4588,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$21</c:f>
+              <c:f>Model!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4700,7 +4719,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$21:$S$21</c:f>
+              <c:f>Model!$J$24:$S$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4743,7 +4762,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$22</c:f>
+              <c:f>Model!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4874,7 +4893,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$22:$S$22</c:f>
+              <c:f>Model!$J$25:$S$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4917,7 +4936,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$23</c:f>
+              <c:f>Model!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5048,7 +5067,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$J$23:$S$23</c:f>
+              <c:f>Model!$J$26:$S$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6127,18 +6146,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.15</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.13</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.15</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.11</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6182,7 +6201,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6202,7 +6221,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6233,18 +6252,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.5</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6288,7 +6307,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6308,7 +6327,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12240,7 +12259,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!Q28</f>
+        <f>Model!Q31</f>
         <v>793.55499999999995</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -12354,7 +12373,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="36">
-        <f>C6/Model!F17</f>
+        <f>C6/Model!F20</f>
         <v>65.916666666666671</v>
       </c>
       <c r="E14" s="22"/>
@@ -12372,7 +12391,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="36">
-        <f>C6/Model!G17</f>
+        <f>C6/Model!G20</f>
         <v>54.551724137931039</v>
       </c>
     </row>
@@ -12389,15 +12408,15 @@
         <v>39</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!G17/Model!F17-1</f>
+        <f>Model!G20/Model!F20-1</f>
         <v>0.20833333333333326</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="123"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="125"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -12407,9 +12426,9 @@
         <f>C14/(C16*100)</f>
         <v>0.65916666666666668</v>
       </c>
-      <c r="L18" s="126"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="128"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="131"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -12419,9 +12438,9 @@
         <f>C15/(C17*100)</f>
         <v>2.6184827586206909</v>
       </c>
-      <c r="L19" s="126"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="131"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -12431,9 +12450,9 @@
         <f>Model!F4/Model!E3-1</f>
         <v>0.31127533487370695</v>
       </c>
-      <c r="L20" s="126"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="128"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="131"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -12443,9 +12462,9 @@
         <f>Model!G4/Model!F4-1</f>
         <v>0.25628140703517599</v>
       </c>
-      <c r="L21" s="126"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="128"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="131"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -12455,9 +12474,9 @@
         <f>Model!E9+Model!E10</f>
         <v>-331.09199999999998</v>
       </c>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="128"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="131"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -12467,33 +12486,33 @@
         <f>Model!E12</f>
         <v>-307.04099999999994</v>
       </c>
-      <c r="L23" s="126"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="128"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="131"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!Q18</f>
+        <f>Model!Q21</f>
         <v>0.77377111150112732</v>
       </c>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="128"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="131"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!Q19</f>
+        <f>Model!Q22</f>
         <v>-2.2239922956802823E-2</v>
       </c>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="128"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="131"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -12503,9 +12522,9 @@
         <f>C12/C23</f>
         <v>-24.753444298839572</v>
       </c>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="128"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="131"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -12517,9 +12536,9 @@
       <c r="E27" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="126"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="128"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="131"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -12531,16 +12550,16 @@
       <c r="E28" t="s">
         <v>167</v>
       </c>
-      <c r="L28" s="129"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="131"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="134"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!Q33/Model!Q45</f>
+        <f>Model!Q36/Model!Q48</f>
         <v>6.628243410605335</v>
       </c>
     </row>
@@ -12549,7 +12568,7 @@
         <v>81</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!Q28+Model!Q29+Model!Q30)/Model!Q45</f>
+        <f>(Model!Q31+Model!Q32+Model!Q33)/Model!Q48</f>
         <v>6.2545721167361883</v>
       </c>
     </row>
@@ -12564,7 +12583,7 @@
         <v>83</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!Q27-Model!Q35)/Main!C7</f>
+        <f>(Model!Q30-Model!Q38)/Main!C7</f>
         <v>2.8718563453341859</v>
       </c>
     </row>
@@ -12579,7 +12598,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="38">
-        <f>Model!E14/Model!E40</f>
+        <f>Model!E14/Model!E43</f>
         <v>-0.28302924567283411</v>
       </c>
     </row>
@@ -12588,7 +12607,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="38">
-        <f>Model!E14/Model!E49</f>
+        <f>Model!E14/Model!E52</f>
         <v>-0.3369487864255441</v>
       </c>
     </row>
@@ -12609,13 +12628,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12623,7 +12642,6 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="13"/>
-    <col min="15" max="15" width="11.42578125" style="142"/>
     <col min="17" max="17" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -12663,7 +12681,7 @@
       <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="142" t="s">
+      <c r="O2" t="s">
         <v>35</v>
       </c>
       <c r="P2" t="s">
@@ -12713,19 +12731,19 @@
       <c r="N3" s="10">
         <v>175.80699999999999</v>
       </c>
-      <c r="O3" s="143">
+      <c r="O3" s="10">
         <v>201.61799999999999</v>
       </c>
-      <c r="P3" s="143">
+      <c r="P3" s="10">
         <v>209.99299999999999</v>
       </c>
       <c r="Q3" s="15">
         <v>222.21299999999999</v>
       </c>
-      <c r="R3" s="143">
+      <c r="R3" s="10">
         <v>226.04</v>
       </c>
-      <c r="S3" s="143">
+      <c r="S3" s="10">
         <v>256.91000000000003</v>
       </c>
     </row>
@@ -12747,17 +12765,17 @@
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10">
         <v>202.21</v>
       </c>
       <c r="Q4" s="15">
         <v>209.99</v>
       </c>
-      <c r="R4" s="143">
+      <c r="R4" s="10">
         <v>226.04</v>
       </c>
-      <c r="S4" s="143">
+      <c r="S4" s="10">
         <v>256.91000000000003</v>
       </c>
     </row>
@@ -12791,17 +12809,17 @@
       <c r="N5" s="10">
         <v>58.825000000000003</v>
       </c>
-      <c r="O5" s="143">
+      <c r="O5" s="10">
         <v>45.012999999999998</v>
       </c>
-      <c r="P5" s="143">
+      <c r="P5" s="10">
         <v>44.938000000000002</v>
       </c>
       <c r="Q5" s="15">
         <v>50.271000000000001</v>
       </c>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -12833,17 +12851,17 @@
       <c r="N6" s="10">
         <v>167.87700000000001</v>
       </c>
-      <c r="O6" s="143">
+      <c r="O6" s="10">
         <v>102.524</v>
       </c>
-      <c r="P6" s="143">
+      <c r="P6" s="10">
         <v>91.858000000000004</v>
       </c>
       <c r="Q6" s="15">
         <v>94.501000000000005</v>
       </c>
-      <c r="R6" s="143"/>
-      <c r="S6" s="143"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -12875,17 +12893,17 @@
       <c r="N7" s="10">
         <v>141.45500000000001</v>
       </c>
-      <c r="O7" s="143">
+      <c r="O7" s="10">
         <v>52.634999999999998</v>
       </c>
-      <c r="P7" s="143">
+      <c r="P7" s="10">
         <v>56.097000000000001</v>
       </c>
       <c r="Q7" s="15">
         <v>55.734999999999999</v>
       </c>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -12917,17 +12935,17 @@
       <c r="N8" s="10">
         <v>109.85299999999999</v>
       </c>
-      <c r="O8" s="143">
+      <c r="O8" s="10">
         <v>37.776000000000003</v>
       </c>
-      <c r="P8" s="143">
+      <c r="P8" s="10">
         <v>39.192</v>
       </c>
       <c r="Q8" s="15">
         <v>35.759</v>
       </c>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -12975,11 +12993,11 @@
         <f t="shared" si="0"/>
         <v>-302.20300000000009</v>
       </c>
-      <c r="O9" s="144">
+      <c r="O9" s="11">
         <f t="shared" si="0"/>
         <v>-36.330000000000013</v>
       </c>
-      <c r="P9" s="144">
+      <c r="P9" s="11">
         <f t="shared" si="0"/>
         <v>-22.092000000000013</v>
       </c>
@@ -12987,11 +13005,11 @@
         <f t="shared" si="0"/>
         <v>-14.053000000000026</v>
       </c>
-      <c r="R9" s="144">
+      <c r="R9" s="11">
         <f t="shared" ref="R9:S9" si="1">R3-SUM(R5:R8)</f>
         <v>226.04</v>
       </c>
-      <c r="S9" s="144">
+      <c r="S9" s="11">
         <f t="shared" si="1"/>
         <v>256.91000000000003</v>
       </c>
@@ -13026,17 +13044,17 @@
       <c r="N10" s="10">
         <v>0.26500000000000001</v>
       </c>
-      <c r="O10" s="143">
+      <c r="O10" s="10">
         <v>-0.126</v>
       </c>
-      <c r="P10" s="143">
+      <c r="P10" s="10">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q10" s="15">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -13068,17 +13086,17 @@
       <c r="N11" s="10">
         <v>6.1829999999999998</v>
       </c>
-      <c r="O11" s="143">
+      <c r="O11" s="10">
         <v>9.5670000000000002</v>
       </c>
-      <c r="P11" s="143">
+      <c r="P11" s="10">
         <v>9.5459999999999994</v>
       </c>
       <c r="Q11" s="15">
         <v>9.9789999999999992</v>
       </c>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -13124,11 +13142,11 @@
         <f t="shared" si="2"/>
         <v>-295.75500000000011</v>
       </c>
-      <c r="O12" s="144">
+      <c r="O12" s="11">
         <f t="shared" si="2"/>
         <v>-26.88900000000001</v>
       </c>
-      <c r="P12" s="144">
+      <c r="P12" s="11">
         <f t="shared" si="2"/>
         <v>-12.478000000000014</v>
       </c>
@@ -13136,11 +13154,11 @@
         <f t="shared" si="2"/>
         <v>-4.0810000000000262</v>
       </c>
-      <c r="R12" s="144">
+      <c r="R12" s="11">
         <f t="shared" ref="R12:S12" si="3">R9+SUM(R10:R11)</f>
         <v>226.04</v>
       </c>
-      <c r="S12" s="144">
+      <c r="S12" s="11">
         <f t="shared" si="3"/>
         <v>256.91000000000003</v>
       </c>
@@ -13175,17 +13193,17 @@
       <c r="N13" s="10">
         <v>0.81899999999999995</v>
       </c>
-      <c r="O13" s="143">
+      <c r="O13" s="10">
         <v>-0.59399999999999997</v>
       </c>
-      <c r="P13" s="143">
+      <c r="P13" s="10">
         <v>0.40400000000000003</v>
       </c>
       <c r="Q13" s="15">
         <v>0.86099999999999999</v>
       </c>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -13225,11 +13243,11 @@
         <f t="shared" si="4"/>
         <v>-296.57400000000013</v>
       </c>
-      <c r="O14" s="144">
+      <c r="O14" s="11">
         <f t="shared" si="4"/>
         <v>-26.295000000000009</v>
       </c>
-      <c r="P14" s="144">
+      <c r="P14" s="11">
         <f t="shared" si="4"/>
         <v>-12.882000000000014</v>
       </c>
@@ -13237,11 +13255,11 @@
         <f t="shared" si="4"/>
         <v>-4.9420000000000259</v>
       </c>
-      <c r="R14" s="144">
+      <c r="R14" s="11">
         <f>R16*R15</f>
         <v>29.182253539999998</v>
       </c>
-      <c r="S14" s="144">
+      <c r="S14" s="11">
         <f>S16*S15</f>
         <v>26.529321400000001</v>
       </c>
@@ -13276,19 +13294,19 @@
       <c r="N15" s="10">
         <v>240.125168</v>
       </c>
-      <c r="O15" s="143">
+      <c r="O15" s="10">
         <v>258.89918899999998</v>
       </c>
-      <c r="P15" s="143">
+      <c r="P15" s="10">
         <v>261.33241099999998</v>
       </c>
       <c r="Q15" s="15">
         <v>265.29321399999998</v>
       </c>
-      <c r="R15" s="143">
+      <c r="R15" s="10">
         <v>265.29321399999998</v>
       </c>
-      <c r="S15" s="143">
+      <c r="S15" s="10">
         <v>265.29321399999998</v>
       </c>
     </row>
@@ -13315,1184 +13333,1143 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="J16" s="2">
-        <f>J14/J15</f>
+        <f t="shared" ref="J16:Q16" si="5">J14/J15</f>
         <v>-0.10291273740040068</v>
       </c>
       <c r="K16" s="2">
-        <f>K14/K15</f>
+        <f t="shared" si="5"/>
         <v>-3.218877139518345E-3</v>
       </c>
       <c r="L16" s="2">
-        <f>L14/L15</f>
+        <f t="shared" si="5"/>
         <v>1.8165759369506387E-2</v>
       </c>
       <c r="M16" s="2">
-        <f>M14/M15</f>
+        <f t="shared" si="5"/>
         <v>4.6016269437324876E-2</v>
       </c>
       <c r="N16" s="2">
-        <f>N14/N15</f>
+        <f t="shared" si="5"/>
         <v>-1.2350808641599789</v>
       </c>
-      <c r="O16" s="145">
-        <f>O14/O15</f>
+      <c r="O16" s="123">
+        <f t="shared" si="5"/>
         <v>-0.101564628694144</v>
       </c>
-      <c r="P16" s="145">
-        <f>P14/P15</f>
+      <c r="P16" s="123">
+        <f t="shared" si="5"/>
         <v>-4.9293541320445E-2</v>
       </c>
       <c r="Q16" s="54">
-        <f>Q14/Q15</f>
+        <f t="shared" si="5"/>
         <v>-1.8628444827088666E-2</v>
       </c>
-      <c r="R16" s="150">
+      <c r="R16" s="125">
         <v>0.11</v>
       </c>
-      <c r="S16" s="150">
+      <c r="S16" s="125">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="151"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="N17" s="148"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152">
+        <v>35.753999999999998</v>
+      </c>
+      <c r="Q17" s="153">
+        <v>35.316000000000003</v>
+      </c>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+    </row>
+    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="154">
+        <f>M14+M17</f>
+        <v>11.406000000000011</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="154">
+        <f>P14+P17</f>
+        <v>22.871999999999986</v>
+      </c>
+      <c r="Q18" s="146">
+        <f>Q14+Q17</f>
+        <v>30.373999999999977</v>
+      </c>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+    </row>
+    <row r="19" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="154">
+        <f>M18/M15</f>
+        <v>4.8209935629845463E-2</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="154">
+        <f>P18/P15</f>
+        <v>8.7520717053347005E-2</v>
+      </c>
+      <c r="Q19" s="146">
+        <f>Q18/Q15</f>
+        <v>0.11449218599311771</v>
+      </c>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+    </row>
+    <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="44">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="44">
         <v>0.48</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G20" s="45">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146">
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124">
         <v>0.11</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q20" s="49">
         <v>0.1</v>
       </c>
-      <c r="R17" s="146">
+      <c r="R20" s="124">
         <v>0.11</v>
       </c>
-      <c r="S17" s="146">
+      <c r="S20" s="124">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="21" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C21" s="3">
         <f>1-C5/C3</f>
         <v>0.70858794384805945</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D21" s="3">
         <f>1-D5/D3</f>
         <v>0.72918975860289204</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E21" s="6">
         <f>1-E5/E3</f>
         <v>0.7451822735743785</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="J18" s="3">
-        <f t="shared" ref="J18:P18" si="5">1-J5/J3</f>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="J21" s="3">
+        <f t="shared" ref="J21:P21" si="6">1-J5/J3</f>
         <v>0.72627718850698175</v>
       </c>
-      <c r="K18" s="3">
-        <f t="shared" si="5"/>
+      <c r="K21" s="3">
+        <f t="shared" si="6"/>
         <v>0.74296140737425553</v>
       </c>
-      <c r="L18" s="3">
-        <f t="shared" si="5"/>
+      <c r="L21" s="3">
+        <f t="shared" si="6"/>
         <v>0.76568346061196246</v>
       </c>
-      <c r="M18" s="3">
-        <f t="shared" si="5"/>
+      <c r="M21" s="3">
+        <f t="shared" si="6"/>
         <v>0.7723014108125843</v>
       </c>
-      <c r="N18" s="3">
-        <f t="shared" si="5"/>
+      <c r="N21" s="3">
+        <f t="shared" si="6"/>
         <v>0.66540012627483547</v>
       </c>
-      <c r="O18" s="39">
-        <f t="shared" si="5"/>
+      <c r="O21" s="39">
+        <f t="shared" si="6"/>
         <v>0.77674116398337456</v>
       </c>
-      <c r="P18" s="39">
-        <f t="shared" si="5"/>
+      <c r="P21" s="39">
+        <f t="shared" si="6"/>
         <v>0.78600239055587562</v>
       </c>
-      <c r="Q18" s="6">
-        <f t="shared" ref="Q18" si="6">1-Q5/Q3</f>
+      <c r="Q21" s="6">
+        <f t="shared" ref="Q21" si="7">1-Q5/Q3</f>
         <v>0.77377111150112732</v>
       </c>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C22" s="4">
         <f>C14/C3</f>
         <v>-0.27313859069639418</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D22" s="4">
         <f>D14/D3</f>
         <v>-0.10405755286114401</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E22" s="7">
         <f>E14/E3</f>
         <v>-0.44153193171742106</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F22" s="47">
         <f>F14/F4</f>
         <v>0</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G22" s="47">
         <f>G14/G4</f>
         <v>0</v>
       </c>
-      <c r="J19" s="4">
-        <f t="shared" ref="J19:P19" si="7">J14/J3</f>
+      <c r="J22" s="4">
+        <f t="shared" ref="J22:P22" si="8">J14/J3</f>
         <v>-0.20033062567132126</v>
       </c>
-      <c r="K19" s="4">
-        <f t="shared" si="7"/>
+      <c r="K22" s="4">
+        <f t="shared" si="8"/>
         <v>-5.198471442834013E-3</v>
       </c>
-      <c r="L19" s="4">
-        <f t="shared" si="7"/>
+      <c r="L22" s="4">
+        <f t="shared" si="8"/>
         <v>2.7407616216493354E-2</v>
       </c>
-      <c r="M19" s="4">
-        <f t="shared" si="7"/>
+      <c r="M22" s="4">
+        <f t="shared" si="8"/>
         <v>6.6147788997849205E-2</v>
       </c>
-      <c r="N19" s="4">
-        <f t="shared" si="7"/>
+      <c r="N22" s="4">
+        <f t="shared" si="8"/>
         <v>-1.686929416917416</v>
       </c>
-      <c r="O19" s="147">
-        <f t="shared" si="7"/>
+      <c r="O22" s="4">
+        <f t="shared" si="8"/>
         <v>-0.13041990298485259</v>
       </c>
-      <c r="P19" s="147">
-        <f t="shared" si="7"/>
+      <c r="P22" s="4">
+        <f t="shared" si="8"/>
         <v>-6.1344901972922972E-2</v>
       </c>
-      <c r="Q19" s="7">
-        <f t="shared" ref="Q19" si="8">Q14/Q3</f>
+      <c r="Q22" s="7">
+        <f t="shared" ref="Q22" si="9">Q14/Q3</f>
         <v>-2.2239922956802823E-2</v>
       </c>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="39">
+      <c r="C23" s="3"/>
+      <c r="D23" s="39">
         <f>D3/C3-1</f>
         <v>0.6265758326451969</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E23" s="6">
         <f>E3/D3-1</f>
         <v>0.47668313773934545</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F23" s="48">
         <f>F4/E3-1</f>
         <v>0.31127533487370695</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G23" s="48">
         <f>G4/F4-1</f>
         <v>0.25628140703517599</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4">
-        <f t="shared" ref="N20:O20" si="9">N3/J3-1</f>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4">
+        <f t="shared" ref="N23:O23" si="10">N3/J3-1</f>
         <v>0.47528698979591821</v>
       </c>
-      <c r="O20" s="147">
-        <f t="shared" si="9"/>
+      <c r="O23" s="4">
+        <f t="shared" si="10"/>
         <v>0.38821909319378922</v>
       </c>
-      <c r="P20" s="147">
+      <c r="P23" s="4">
         <f>P3/L3-1</f>
         <v>0.34535005894111026</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q23" s="7">
         <f>Q3/M3-1</f>
         <v>0.35013306113521181</v>
       </c>
-      <c r="R20" s="147">
+      <c r="R23" s="4">
         <f>R3/N3-1</f>
         <v>0.28572809956372613</v>
       </c>
-      <c r="S20" s="147">
+      <c r="S23" s="4">
         <f>S3/O3-1</f>
         <v>0.27424138717773228</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C24" s="4">
         <f>C6/C3</f>
         <v>0.53792320396366644</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D24" s="4">
         <f>D6/D3</f>
         <v>0.45235093538206406</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E24" s="7">
         <f>E6/E3</f>
         <v>0.56491844279966019</v>
       </c>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="J21" s="4">
-        <f t="shared" ref="J21:P21" si="10">J6/J3</f>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="J24" s="4">
+        <f t="shared" ref="J24:P24" si="11">J6/J3</f>
         <v>0.51592709452201935</v>
       </c>
-      <c r="K21" s="4">
-        <f t="shared" si="10"/>
+      <c r="K24" s="4">
+        <f t="shared" si="11"/>
         <v>0.41620132888077943</v>
       </c>
-      <c r="L21" s="4">
-        <f t="shared" si="10"/>
+      <c r="L24" s="4">
+        <f t="shared" si="11"/>
         <v>0.38832581620624262</v>
       </c>
-      <c r="M21" s="4">
-        <f t="shared" si="10"/>
+      <c r="M24" s="4">
+        <f t="shared" si="11"/>
         <v>0.38494768692355363</v>
       </c>
-      <c r="N21" s="4">
-        <f t="shared" si="10"/>
+      <c r="N24" s="4">
+        <f t="shared" si="11"/>
         <v>0.95489371868014372</v>
       </c>
-      <c r="O21" s="147">
-        <f t="shared" si="10"/>
+      <c r="O24" s="4">
+        <f t="shared" si="11"/>
         <v>0.50850618496364408</v>
       </c>
-      <c r="P21" s="147">
-        <f t="shared" si="10"/>
+      <c r="P24" s="4">
+        <f t="shared" si="11"/>
         <v>0.43743362874000563</v>
       </c>
-      <c r="Q21" s="7">
-        <f t="shared" ref="Q21" si="11">Q6/Q3</f>
+      <c r="Q24" s="7">
+        <f t="shared" ref="Q24" si="12">Q6/Q3</f>
         <v>0.42527214879417496</v>
       </c>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C25" s="4">
         <f>C7/C3</f>
         <v>0.225705339939444</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D25" s="4">
         <f>D7/D3</f>
         <v>0.2201532317429159</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E25" s="7">
         <f>E7/E3</f>
         <v>0.37555848096043687</v>
       </c>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="J22" s="4">
-        <f t="shared" ref="J22:O22" si="12">J7/J3</f>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="J25" s="4">
+        <f t="shared" ref="J25:O25" si="13">J7/J3</f>
         <v>0.25250067132116005</v>
       </c>
-      <c r="K22" s="4">
-        <f t="shared" si="12"/>
+      <c r="K25" s="4">
+        <f t="shared" si="13"/>
         <v>0.19769339346576237</v>
       </c>
-      <c r="L22" s="4">
-        <f t="shared" si="12"/>
+      <c r="L25" s="4">
+        <f t="shared" si="13"/>
         <v>0.22443749679667879</v>
       </c>
-      <c r="M22" s="4">
-        <f t="shared" si="12"/>
+      <c r="M25" s="4">
+        <f t="shared" si="13"/>
         <v>0.20083725225717861</v>
       </c>
-      <c r="N22" s="4">
-        <f t="shared" si="12"/>
+      <c r="N25" s="4">
+        <f t="shared" si="13"/>
         <v>0.80460391224467753</v>
       </c>
-      <c r="O22" s="147">
-        <f t="shared" si="12"/>
+      <c r="O25" s="4">
+        <f t="shared" si="13"/>
         <v>0.26106300032735175</v>
       </c>
-      <c r="P22" s="147">
-        <f t="shared" ref="P22:Q22" si="13">P7/P3</f>
+      <c r="P25" s="4">
+        <f t="shared" ref="P25:Q25" si="14">P7/P3</f>
         <v>0.26713747601110516</v>
       </c>
-      <c r="Q22" s="7">
-        <f t="shared" si="13"/>
+      <c r="Q25" s="7">
+        <f t="shared" si="14"/>
         <v>0.25081790894322115</v>
       </c>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" ref="C23" si="14">C8/C3</f>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26" si="15">C8/C3</f>
         <v>0.21757500688136527</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D26" s="4">
         <f>D8/D3</f>
         <v>0.17310279472361598</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E26" s="7">
         <f>E8/E3</f>
         <v>0.27830866395740433</v>
       </c>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="J23" s="4">
-        <f t="shared" ref="J23:O23" si="15">J8/J3</f>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="J26" s="4">
+        <f t="shared" ref="J26:O26" si="16">J8/J3</f>
         <v>0.17320085929108486</v>
       </c>
-      <c r="K23" s="4">
-        <f t="shared" si="15"/>
+      <c r="K26" s="4">
+        <f t="shared" si="16"/>
         <v>0.15713843081901743</v>
       </c>
-      <c r="L23" s="4">
-        <f t="shared" si="15"/>
+      <c r="L26" s="4">
+        <f t="shared" si="16"/>
         <v>0.14729511557582903</v>
       </c>
-      <c r="M23" s="4">
-        <f t="shared" si="15"/>
+      <c r="M26" s="4">
+        <f t="shared" si="16"/>
         <v>0.14379108794186624</v>
       </c>
-      <c r="N23" s="4">
-        <f t="shared" si="15"/>
+      <c r="N26" s="4">
+        <f t="shared" si="16"/>
         <v>0.62484997753218019</v>
       </c>
-      <c r="O23" s="147">
-        <f t="shared" si="15"/>
+      <c r="O26" s="4">
+        <f t="shared" si="16"/>
         <v>0.18736422343243164</v>
       </c>
-      <c r="P23" s="147">
-        <f t="shared" ref="P23:Q23" si="16">P8/P3</f>
+      <c r="P26" s="4">
+        <f t="shared" ref="P26:Q26" si="17">P8/P3</f>
         <v>0.18663479258832438</v>
       </c>
-      <c r="Q23" s="7">
-        <f t="shared" si="16"/>
+      <c r="Q26" s="7">
+        <f t="shared" si="17"/>
         <v>0.16092217827039823</v>
       </c>
-      <c r="R23" s="147"/>
-      <c r="S23" s="147"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="39">
+      <c r="C27" s="3"/>
+      <c r="D27" s="39">
         <f>D14/C14-1</f>
         <v>-0.38032373874157455</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E27" s="6">
         <f>E14/D14-1</f>
         <v>5.2657898481491117</v>
       </c>
-      <c r="F24" s="57">
-        <f>F17/E16-1</f>
+      <c r="F27" s="57">
+        <f>F20/E16-1</f>
         <v>-1.3782425975155159</v>
       </c>
-      <c r="G24" s="57">
-        <f>G17/F17-1</f>
+      <c r="G27" s="57">
+        <f>G20/F20-1</f>
         <v>0.20833333333333326</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4">
-        <f t="shared" ref="N24:S24" si="17">N14/J14-1</f>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
+        <f t="shared" ref="N27:S27" si="18">N14/J14-1</f>
         <v>11.422988313157122</v>
       </c>
-      <c r="O24" s="147">
-        <f t="shared" si="17"/>
+      <c r="O27" s="4">
+        <f t="shared" si="18"/>
         <v>33.827814569536535</v>
       </c>
-      <c r="P24" s="147">
-        <f t="shared" si="17"/>
+      <c r="P27" s="4">
+        <f t="shared" si="18"/>
         <v>-4.0112201963534293</v>
       </c>
-      <c r="Q24" s="7">
-        <f t="shared" si="17"/>
+      <c r="Q27" s="7">
+        <f t="shared" si="18"/>
         <v>-1.4539358868375145</v>
       </c>
-      <c r="R24" s="147">
-        <f t="shared" si="17"/>
+      <c r="R27" s="4">
+        <f t="shared" si="18"/>
         <v>-1.0983978822823308</v>
       </c>
-      <c r="S24" s="147">
-        <f t="shared" si="17"/>
+      <c r="S27" s="4">
+        <f t="shared" si="18"/>
         <v>-2.0089112530899405</v>
       </c>
     </row>
-    <row r="27" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="30" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="11">
-        <f t="shared" ref="C27" si="18">C28+C29</f>
+      <c r="C30" s="11">
+        <f t="shared" ref="C30" si="19">C31+C32</f>
         <v>0</v>
       </c>
-      <c r="D27" s="11">
-        <f>D28+D29</f>
+      <c r="D30" s="11">
+        <f>D31+D32</f>
         <v>386.22899999999998</v>
       </c>
-      <c r="E27" s="14">
-        <f>E28+E29</f>
+      <c r="E30" s="14">
+        <f>E31+E32</f>
         <v>738.971</v>
       </c>
-      <c r="J27" s="11">
-        <f t="shared" ref="J27:N27" si="19">J28+J29</f>
+      <c r="J30" s="11">
+        <f t="shared" ref="J30:N30" si="20">J31+J32</f>
         <v>0</v>
       </c>
-      <c r="K27" s="11">
-        <f t="shared" si="19"/>
+      <c r="K30" s="11">
+        <f t="shared" si="20"/>
         <v>386.22899999999998</v>
       </c>
-      <c r="L27" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="11">
-        <f t="shared" si="19"/>
-        <v>723.80099999999993</v>
-      </c>
-      <c r="O27" s="144">
-        <f>O28+O29</f>
-        <v>738.971</v>
-      </c>
-      <c r="P27" s="11">
-        <f t="shared" ref="P27:S27" si="20">P28+P29</f>
-        <v>756.22</v>
-      </c>
-      <c r="Q27" s="14">
-        <f t="shared" si="20"/>
-        <v>793.95699999999999</v>
-      </c>
-      <c r="R27" s="11">
+      <c r="L30" s="11">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="S27" s="11">
+      <c r="M30" s="11">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10">
-        <v>385.82</v>
-      </c>
-      <c r="E28" s="15">
-        <v>738.56200000000001</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10">
-        <f>D28</f>
-        <v>385.82</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10">
-        <v>723.41499999999996</v>
-      </c>
-      <c r="O28" s="143">
-        <f>E28</f>
-        <v>738.56200000000001</v>
-      </c>
-      <c r="P28" s="10">
-        <v>755.827</v>
-      </c>
-      <c r="Q28" s="15">
-        <v>793.55499999999995</v>
-      </c>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10">
-        <f>D29</f>
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="O29" s="143">
-        <f>E29</f>
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10">
-        <v>10.723000000000001</v>
-      </c>
-      <c r="E30" s="15">
-        <v>23.076000000000001</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10">
-        <f>D30</f>
-        <v>10.723000000000001</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10">
-        <v>17.38</v>
-      </c>
-      <c r="O30" s="143">
-        <f>E30</f>
-        <v>23.076000000000001</v>
-      </c>
-      <c r="P30" s="10">
-        <v>23.241</v>
-      </c>
-      <c r="Q30" s="15">
-        <v>29.225999999999999</v>
-      </c>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
+      <c r="N30" s="11">
+        <f t="shared" si="20"/>
+        <v>723.80099999999993</v>
+      </c>
+      <c r="O30" s="11">
+        <f>O31+O32</f>
+        <v>738.971</v>
+      </c>
+      <c r="P30" s="11">
+        <f t="shared" ref="P30:S30" si="21">P31+P32</f>
+        <v>756.22</v>
+      </c>
+      <c r="Q30" s="14">
+        <f t="shared" si="21"/>
+        <v>793.95699999999999</v>
+      </c>
+      <c r="R30" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
-        <v>11.215</v>
+        <v>385.82</v>
       </c>
       <c r="E31" s="15">
-        <v>15.198</v>
+        <v>738.56200000000001</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10">
         <f>D31</f>
-        <v>11.215</v>
+        <v>385.82</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10">
-        <v>14.161</v>
-      </c>
-      <c r="O31" s="143">
+        <v>723.41499999999996</v>
+      </c>
+      <c r="O31" s="10">
         <f>E31</f>
-        <v>15.198</v>
+        <v>738.56200000000001</v>
       </c>
       <c r="P31" s="10">
-        <v>17.177</v>
+        <v>755.827</v>
       </c>
       <c r="Q31" s="15">
-        <v>18.030999999999999</v>
+        <v>793.55499999999995</v>
       </c>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
-        <v>19.335999999999999</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="E32" s="15">
-        <v>26.244</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10">
         <f>D32</f>
-        <v>19.335999999999999</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10">
-        <v>26.01</v>
-      </c>
-      <c r="O32" s="143">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="O32" s="10">
         <f>E32</f>
-        <v>26.244</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="P32" s="10">
-        <v>29.803999999999998</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="Q32" s="15">
-        <v>31.149000000000001</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="11">
-        <f>SUM(C28:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="11">
-        <f>SUM(D28:D32)</f>
-        <v>427.50299999999999</v>
-      </c>
-      <c r="E33" s="14">
-        <f>SUM(E28:E32)</f>
-        <v>803.48900000000003</v>
-      </c>
-      <c r="J33" s="11">
-        <f t="shared" ref="J33:O33" si="21">SUM(J28:J32)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="11">
-        <f t="shared" si="21"/>
-        <v>427.50299999999999</v>
-      </c>
-      <c r="L33" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
-        <f t="shared" si="21"/>
-        <v>781.35199999999986</v>
-      </c>
-      <c r="O33" s="144">
-        <f t="shared" si="21"/>
-        <v>803.48900000000003</v>
-      </c>
-      <c r="P33" s="11">
-        <f t="shared" ref="P33:S33" si="22">SUM(P28:P32)</f>
-        <v>826.44200000000001</v>
-      </c>
-      <c r="Q33" s="14">
-        <f t="shared" si="22"/>
-        <v>872.36299999999994</v>
-      </c>
-      <c r="R33" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10">
+        <v>10.723000000000001</v>
+      </c>
+      <c r="E33" s="15">
+        <v>23.076000000000001</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10">
+        <f>D33</f>
+        <v>10.723000000000001</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10">
+        <v>17.38</v>
+      </c>
+      <c r="O33" s="10">
+        <f>E33</f>
+        <v>23.076000000000001</v>
+      </c>
+      <c r="P33" s="10">
+        <v>23.241</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>29.225999999999999</v>
+      </c>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
-        <v>45.837000000000003</v>
+        <v>11.215</v>
       </c>
       <c r="E34" s="15">
-        <v>43.45</v>
+        <v>15.198</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10">
         <f>D34</f>
-        <v>45.837000000000003</v>
+        <v>11.215</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10">
-        <v>42.73</v>
-      </c>
-      <c r="O34" s="143">
+        <v>14.161</v>
+      </c>
+      <c r="O34" s="10">
         <f>E34</f>
-        <v>43.45</v>
+        <v>15.198</v>
       </c>
       <c r="P34" s="10">
-        <v>42.786000000000001</v>
+        <v>17.177</v>
       </c>
       <c r="Q34" s="15">
-        <v>44.366999999999997</v>
+        <v>18.030999999999999</v>
       </c>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
-        <v>45.695</v>
+        <v>19.335999999999999</v>
       </c>
       <c r="E35" s="15">
-        <v>36.987000000000002</v>
+        <v>26.244</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10">
         <f>D35</f>
-        <v>45.695</v>
+        <v>19.335999999999999</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10">
-        <v>39.506</v>
-      </c>
-      <c r="O35" s="143">
+        <v>26.01</v>
+      </c>
+      <c r="O35" s="10">
         <f>E35</f>
-        <v>36.987000000000002</v>
+        <v>26.244</v>
       </c>
       <c r="P35" s="10">
-        <v>34.683999999999997</v>
+        <v>29.803999999999998</v>
       </c>
       <c r="Q35" s="15">
-        <v>32.073</v>
+        <v>31.149000000000001</v>
       </c>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10">
-        <v>15.983000000000001</v>
-      </c>
-      <c r="E36" s="15">
-        <v>23.177</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10">
-        <f>D36</f>
-        <v>15.983000000000001</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10">
-        <v>20.687000000000001</v>
-      </c>
-      <c r="O36" s="143">
-        <f>E36</f>
-        <v>23.177</v>
-      </c>
-      <c r="P36" s="10">
-        <v>24.507000000000001</v>
-      </c>
-      <c r="Q36" s="15">
-        <v>26.696000000000002</v>
-      </c>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
+    <row r="36" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="11">
+        <f>SUM(C31:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <f>SUM(D31:D35)</f>
+        <v>427.50299999999999</v>
+      </c>
+      <c r="E36" s="14">
+        <f>SUM(E31:E35)</f>
+        <v>803.48900000000003</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" ref="J36:O36" si="22">SUM(J31:J35)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="22"/>
+        <v>427.50299999999999</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" si="22"/>
+        <v>781.35199999999986</v>
+      </c>
+      <c r="O36" s="11">
+        <f t="shared" si="22"/>
+        <v>803.48900000000003</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" ref="P36:S36" si="23">SUM(P31:P35)</f>
+        <v>826.44200000000001</v>
+      </c>
+      <c r="Q36" s="14">
+        <f t="shared" si="23"/>
+        <v>872.36299999999994</v>
+      </c>
+      <c r="R36" s="11">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
-        <v>0.68700000000000006</v>
+        <v>45.837000000000003</v>
       </c>
       <c r="E37" s="15">
-        <v>0.68600000000000005</v>
+        <v>43.45</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10">
-        <f>D37</f>
-        <v>0.68700000000000006</v>
+        <f t="shared" ref="K37:K42" si="24">D37</f>
+        <v>45.837000000000003</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="O37" s="143">
-        <f>E37</f>
-        <v>0.68600000000000005</v>
+        <v>42.73</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" ref="O37:O42" si="25">E37</f>
+        <v>43.45</v>
       </c>
       <c r="P37" s="10">
-        <v>0.65700000000000003</v>
+        <v>42.786000000000001</v>
       </c>
       <c r="Q37" s="15">
-        <v>0.67200000000000004</v>
+        <v>44.366999999999997</v>
       </c>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
-        <v>84.415000000000006</v>
+        <v>45.695</v>
       </c>
       <c r="E38" s="15">
-        <v>173.84399999999999</v>
+        <v>36.987000000000002</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10">
-        <f>D38</f>
-        <v>84.415000000000006</v>
+        <f t="shared" si="24"/>
+        <v>45.695</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10">
-        <v>178.96799999999999</v>
-      </c>
-      <c r="O38" s="143">
-        <f>E38</f>
-        <v>173.84399999999999</v>
+        <v>39.506</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="25"/>
+        <v>36.987000000000002</v>
       </c>
       <c r="P38" s="10">
-        <v>168.72</v>
+        <v>34.683999999999997</v>
       </c>
       <c r="Q38" s="15">
-        <v>163.595</v>
+        <v>32.073</v>
       </c>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
-        <v>8.9589999999999996</v>
+        <v>15.983000000000001</v>
       </c>
       <c r="E39" s="15">
-        <v>7.4169999999999998</v>
+        <v>23.177</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10">
-        <f>D39</f>
-        <v>8.9589999999999996</v>
+        <f t="shared" si="24"/>
+        <v>15.983000000000001</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10">
-        <v>7.5330000000000004</v>
-      </c>
-      <c r="O39" s="143">
-        <f>E39</f>
-        <v>7.4169999999999998</v>
+        <v>20.687000000000001</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" si="25"/>
+        <v>23.177</v>
       </c>
       <c r="P39" s="10">
-        <v>10.6</v>
+        <v>24.507000000000001</v>
       </c>
       <c r="Q39" s="15">
-        <v>10.071999999999999</v>
+        <v>26.696000000000002</v>
       </c>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="11">
-        <f>SUM(C33:C39)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="11">
-        <f>SUM(D33:D39)</f>
-        <v>629.07899999999984</v>
-      </c>
-      <c r="E40" s="14">
-        <f>SUM(E33:E39)</f>
-        <v>1089.05</v>
-      </c>
-      <c r="J40" s="11">
-        <f t="shared" ref="J40:O40" si="23">SUM(J33:J39)</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <f t="shared" si="23"/>
-        <v>629.07899999999984</v>
-      </c>
-      <c r="L40" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="11">
-        <f t="shared" si="23"/>
-        <v>1071.4239999999998</v>
-      </c>
-      <c r="O40" s="144">
-        <f t="shared" si="23"/>
-        <v>1089.05</v>
-      </c>
-      <c r="P40" s="11">
-        <f t="shared" ref="P40:S40" si="24">SUM(P33:P39)</f>
-        <v>1108.396</v>
-      </c>
-      <c r="Q40" s="14">
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10">
         <f t="shared" si="24"/>
-        <v>1149.8379999999997</v>
-      </c>
-      <c r="R40" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" si="25"/>
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+    </row>
+    <row r="41" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
-        <v>8.89</v>
+        <v>84.415000000000006</v>
       </c>
       <c r="E41" s="15">
-        <v>13.597</v>
+        <v>173.84399999999999</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10">
-        <f>D41</f>
-        <v>8.89</v>
+        <f t="shared" si="24"/>
+        <v>84.415000000000006</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10">
-        <v>9.7379999999999995</v>
-      </c>
-      <c r="O41" s="143">
-        <f>E41</f>
-        <v>13.597</v>
+        <v>178.96799999999999</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="25"/>
+        <v>173.84399999999999</v>
       </c>
       <c r="P41" s="10">
-        <v>8.4640000000000004</v>
+        <v>168.72</v>
       </c>
       <c r="Q41" s="15">
-        <v>9.4179999999999993</v>
+        <v>163.595</v>
       </c>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
-        <v>36.125999999999998</v>
+        <v>8.9589999999999996</v>
       </c>
       <c r="E42" s="15">
-        <v>62.838000000000001</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10">
-        <f>D42</f>
-        <v>36.125999999999998</v>
+        <f t="shared" si="24"/>
+        <v>8.9589999999999996</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10">
-        <v>62.601999999999997</v>
-      </c>
-      <c r="O42" s="143">
-        <f>E42</f>
-        <v>62.838000000000001</v>
+        <v>7.5330000000000004</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="25"/>
+        <v>7.4169999999999998</v>
       </c>
       <c r="P42" s="10">
-        <v>65.134</v>
+        <v>10.6</v>
       </c>
       <c r="Q42" s="15">
-        <v>62.404000000000003</v>
+        <v>10.071999999999999</v>
       </c>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10">
-        <v>14.864000000000001</v>
-      </c>
-      <c r="E43" s="15">
-        <v>14.081</v>
-      </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10">
-        <f>D43</f>
-        <v>14.864000000000001</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10">
-        <v>14.449</v>
-      </c>
-      <c r="O43" s="143">
-        <f>E43</f>
-        <v>14.081</v>
-      </c>
-      <c r="P43" s="10">
-        <v>13.625</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>13.009</v>
-      </c>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="11">
+        <f>SUM(C36:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
+        <f>SUM(D36:D42)</f>
+        <v>629.07899999999984</v>
+      </c>
+      <c r="E43" s="14">
+        <f>SUM(E36:E42)</f>
+        <v>1089.05</v>
+      </c>
+      <c r="J43" s="11">
+        <f t="shared" ref="J43:O43" si="26">SUM(J36:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="26"/>
+        <v>629.07899999999984</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" si="26"/>
+        <v>1071.4239999999998</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="26"/>
+        <v>1089.05</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" ref="P43:S43" si="27">SUM(P36:P42)</f>
+        <v>1108.396</v>
+      </c>
+      <c r="Q43" s="14">
+        <f t="shared" si="27"/>
+        <v>1149.8379999999997</v>
+      </c>
+      <c r="R43" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
-        <v>25.109000000000002</v>
+        <v>8.89</v>
       </c>
       <c r="E44" s="15">
-        <v>40.1</v>
+        <v>13.597</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10">
         <f>D44</f>
-        <v>25.109000000000002</v>
+        <v>8.89</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10">
-        <v>32.866</v>
-      </c>
-      <c r="O44" s="143">
+        <v>9.7379999999999995</v>
+      </c>
+      <c r="O44" s="10">
         <f>E44</f>
-        <v>40.1</v>
+        <v>13.597</v>
       </c>
       <c r="P44" s="10">
-        <v>42.518999999999998</v>
+        <v>8.4640000000000004</v>
       </c>
       <c r="Q44" s="15">
-        <v>46.781999999999996</v>
+        <v>9.4179999999999993</v>
       </c>
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="11">
-        <f>SUM(C41:C44)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="11">
-        <f>SUM(D41:D44)</f>
-        <v>84.989000000000004</v>
-      </c>
-      <c r="E45" s="14">
-        <f>SUM(E41:E44)</f>
-        <v>130.61600000000001</v>
-      </c>
-      <c r="J45" s="11">
-        <f t="shared" ref="J45:O45" si="25">SUM(J41:J44)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="11">
-        <f t="shared" si="25"/>
-        <v>84.989000000000004</v>
-      </c>
-      <c r="L45" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="11">
-        <f t="shared" si="25"/>
-        <v>119.655</v>
-      </c>
-      <c r="O45" s="144">
-        <f t="shared" si="25"/>
-        <v>130.61600000000001</v>
-      </c>
-      <c r="P45" s="11">
-        <f t="shared" ref="P45:S45" si="26">SUM(P41:P44)</f>
-        <v>129.74199999999999</v>
-      </c>
-      <c r="Q45" s="14">
-        <f t="shared" si="26"/>
-        <v>131.613</v>
-      </c>
-      <c r="R45" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10">
+        <v>36.125999999999998</v>
+      </c>
+      <c r="E45" s="15">
+        <v>62.838000000000001</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10">
+        <f>D45</f>
+        <v>36.125999999999998</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10">
+        <v>62.601999999999997</v>
+      </c>
+      <c r="O45" s="10">
+        <f>E45</f>
+        <v>62.838000000000001</v>
+      </c>
+      <c r="P45" s="10">
+        <v>65.134</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>62.404000000000003</v>
+      </c>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -14500,198 +14477,320 @@
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10">
-        <v>47.543999999999997</v>
+        <v>14.864000000000001</v>
       </c>
       <c r="E46" s="15">
-        <v>37.497999999999998</v>
+        <v>14.081</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10">
         <f>D46</f>
-        <v>47.543999999999997</v>
+        <v>14.864000000000001</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10">
-        <v>40.015999999999998</v>
-      </c>
-      <c r="O46" s="143">
+        <v>14.449</v>
+      </c>
+      <c r="O46" s="10">
         <f>E46</f>
-        <v>37.497999999999998</v>
+        <v>14.081</v>
       </c>
       <c r="P46" s="10">
-        <v>34.759</v>
+        <v>13.625</v>
       </c>
       <c r="Q46" s="15">
-        <v>32.069000000000003</v>
+        <v>13.009</v>
       </c>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
-        <v>0.876</v>
+        <v>25.109000000000002</v>
       </c>
       <c r="E47" s="15">
-        <v>6.1589999999999998</v>
+        <v>40.1</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10">
         <f>D47</f>
-        <v>0.876</v>
+        <v>25.109000000000002</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10">
-        <v>6.4089999999999998</v>
-      </c>
-      <c r="O47" s="143">
+        <v>32.866</v>
+      </c>
+      <c r="O47" s="10">
         <f>E47</f>
-        <v>6.1589999999999998</v>
+        <v>40.1</v>
       </c>
       <c r="P47" s="10">
-        <v>6.4429999999999996</v>
+        <v>42.518999999999998</v>
       </c>
       <c r="Q47" s="15">
-        <v>6.6559999999999997</v>
+        <v>46.781999999999996</v>
       </c>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C48" s="11">
-        <f>SUM(C45:C47)</f>
+        <f>SUM(C44:C47)</f>
         <v>0</v>
       </c>
       <c r="D48" s="11">
-        <f>SUM(D45:D47)</f>
-        <v>133.40900000000002</v>
+        <f>SUM(D44:D47)</f>
+        <v>84.989000000000004</v>
       </c>
       <c r="E48" s="14">
-        <f>SUM(E45:E47)</f>
-        <v>174.273</v>
+        <f>SUM(E44:E47)</f>
+        <v>130.61600000000001</v>
       </c>
       <c r="J48" s="11">
-        <f t="shared" ref="J48:O48" si="27">SUM(J45:J47)</f>
+        <f t="shared" ref="J48:O48" si="28">SUM(J44:J47)</f>
         <v>0</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="27"/>
-        <v>133.40900000000002</v>
+        <f t="shared" si="28"/>
+        <v>84.989000000000004</v>
       </c>
       <c r="L48" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="11">
-        <f t="shared" si="27"/>
-        <v>166.07999999999998</v>
-      </c>
-      <c r="O48" s="144">
-        <f t="shared" si="27"/>
-        <v>174.273</v>
-      </c>
-      <c r="P48" s="11">
-        <f t="shared" ref="P48:S48" si="28">SUM(P45:P47)</f>
-        <v>170.94399999999999</v>
-      </c>
-      <c r="Q48" s="14">
-        <f t="shared" si="28"/>
-        <v>170.33800000000002</v>
-      </c>
-      <c r="R48" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S48" s="11">
+      <c r="M48" s="11">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
+      <c r="N48" s="11">
+        <f t="shared" si="28"/>
+        <v>119.655</v>
+      </c>
+      <c r="O48" s="11">
+        <f t="shared" si="28"/>
+        <v>130.61600000000001</v>
+      </c>
+      <c r="P48" s="11">
+        <f t="shared" ref="P48:S48" si="29">SUM(P44:P47)</f>
+        <v>129.74199999999999</v>
+      </c>
+      <c r="Q48" s="14">
+        <f t="shared" si="29"/>
+        <v>131.613</v>
+      </c>
+      <c r="R48" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
-        <f>D40-D48</f>
-        <v>495.66999999999985</v>
+        <v>47.543999999999997</v>
       </c>
       <c r="E49" s="15">
-        <f>E40-E48</f>
-        <v>914.77699999999993</v>
-      </c>
-      <c r="J49" s="10">
-        <f>J40-J48</f>
+        <v>37.497999999999998</v>
+      </c>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10">
+        <f>D49</f>
+        <v>47.543999999999997</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10">
+        <v>40.015999999999998</v>
+      </c>
+      <c r="O49" s="10">
+        <f>E49</f>
+        <v>37.497999999999998</v>
+      </c>
+      <c r="P49" s="10">
+        <v>34.759</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>32.069000000000003</v>
+      </c>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10">
+        <v>0.876</v>
+      </c>
+      <c r="E50" s="15">
+        <v>6.1589999999999998</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10">
+        <f>D50</f>
+        <v>0.876</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10">
+        <v>6.4089999999999998</v>
+      </c>
+      <c r="O50" s="10">
+        <f>E50</f>
+        <v>6.1589999999999998</v>
+      </c>
+      <c r="P50" s="10">
+        <v>6.4429999999999996</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>6.6559999999999997</v>
+      </c>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="11">
+        <f>SUM(C48:C50)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="10">
-        <f>K40-K48</f>
-        <v>495.66999999999985</v>
-      </c>
-      <c r="L49" s="10">
-        <f t="shared" ref="L49:O49" si="29">L40-L48</f>
+      <c r="D51" s="11">
+        <f>SUM(D48:D50)</f>
+        <v>133.40900000000002</v>
+      </c>
+      <c r="E51" s="14">
+        <f>SUM(E48:E50)</f>
+        <v>174.273</v>
+      </c>
+      <c r="J51" s="11">
+        <f t="shared" ref="J51:O51" si="30">SUM(J48:J50)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="10">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="10">
-        <f t="shared" si="29"/>
-        <v>905.34399999999982</v>
-      </c>
-      <c r="O49" s="143">
-        <f t="shared" si="29"/>
-        <v>914.77699999999993</v>
-      </c>
-      <c r="P49" s="10">
-        <f t="shared" ref="P49:S49" si="30">P40-P48</f>
-        <v>937.452</v>
-      </c>
-      <c r="Q49" s="15">
+      <c r="K51" s="11">
         <f t="shared" si="30"/>
-        <v>979.49999999999977</v>
-      </c>
-      <c r="R49" s="10">
+        <v>133.40900000000002</v>
+      </c>
+      <c r="L51" s="11">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="S49" s="10">
+      <c r="M51" s="11">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="N51" s="11">
+        <f t="shared" si="30"/>
+        <v>166.07999999999998</v>
+      </c>
+      <c r="O51" s="11">
+        <f t="shared" si="30"/>
+        <v>174.273</v>
+      </c>
+      <c r="P51" s="11">
+        <f t="shared" ref="P51:S51" si="31">SUM(P48:P50)</f>
+        <v>170.94399999999999</v>
+      </c>
+      <c r="Q51" s="14">
+        <f t="shared" si="31"/>
+        <v>170.33800000000002</v>
+      </c>
+      <c r="R51" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10">
+        <f>D43-D51</f>
+        <v>495.66999999999985</v>
+      </c>
+      <c r="E52" s="15">
+        <f>E43-E51</f>
+        <v>914.77699999999993</v>
+      </c>
+      <c r="J52" s="10">
+        <f>J43-J51</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="10">
+        <f>K43-K51</f>
+        <v>495.66999999999985</v>
+      </c>
+      <c r="L52" s="10">
+        <f t="shared" ref="L52:O52" si="32">L43-L51</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" si="32"/>
+        <v>905.34399999999982</v>
+      </c>
+      <c r="O52" s="10">
+        <f t="shared" si="32"/>
+        <v>914.77699999999993</v>
+      </c>
+      <c r="P52" s="10">
+        <f t="shared" ref="P52:S52" si="33">P43-P51</f>
+        <v>937.452</v>
+      </c>
+      <c r="Q52" s="15">
+        <f t="shared" si="33"/>
+        <v>979.49999999999977</v>
+      </c>
+      <c r="R52" s="10">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="10">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="O51" s="148"/>
-      <c r="Q51" s="16"/>
-    </row>
-    <row r="69" spans="5:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="41"/>
-      <c r="O69" s="149"/>
-      <c r="Q69" s="41"/>
-    </row>
-    <row r="70" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E70" s="16"/>
-      <c r="O70" s="148"/>
-      <c r="Q70" s="16"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
+      <c r="Q54" s="16"/>
+    </row>
+    <row r="72" spans="5:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="41"/>
+      <c r="Q72" s="41"/>
+    </row>
+    <row r="73" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="16"/>
+      <c r="Q73" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -23295,14 +23394,14 @@
       <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="137"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -23805,10 +23904,10 @@
         <f t="shared" si="0"/>
         <v>-4.9391717325228957E-3</v>
       </c>
-      <c r="H17" s="135" t="s">
+      <c r="H17" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="136"/>
+      <c r="I17" s="139"/>
       <c r="M17" s="83"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -23822,8 +23921,8 @@
         <f t="shared" si="0"/>
         <v>-5.2555829641618756E-2</v>
       </c>
-      <c r="H18" s="137"/>
-      <c r="I18" s="138"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="141"/>
       <c r="M18" s="83"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -24292,14 +24391,14 @@
       <c r="M42" s="96"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="139" t="s">
+      <c r="H43" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="141"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="143"/>
+      <c r="L43" s="143"/>
+      <c r="M43" s="144"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H44" s="97">
